--- a/stage2_excels/PD/PD_merge_data.xlsx
+++ b/stage2_excels/PD/PD_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP22"/>
+  <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_25</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>lab_l_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_75</t>
+          <t>lab_l_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_25</t>
+          <t>lab_a_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_75</t>
+          <t>lab_a_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -626,282 +626,102 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_25</t>
+          <t>lab_b_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>lab_b_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_variance</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_mean</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_75</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_25</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_75</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_25</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_75</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
     </row>
@@ -1029,166 +849,58 @@
         <v>128</v>
       </c>
       <c r="AO2" t="n">
-        <v>52.95731177062633</v>
+        <v>51.43044629899438</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1760.627820544722</v>
+        <v>1444.869484765277</v>
       </c>
       <c r="AR2" t="n">
-        <v>41.95983580216589</v>
+        <v>38.01143886733672</v>
       </c>
       <c r="AS2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AT2" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU2" t="n">
-        <v>97.60590108235677</v>
+        <v>48.97013078473693</v>
       </c>
       <c r="AV2" t="n">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AW2" t="n">
-        <v>26.6912042417616</v>
+        <v>1625.431005391914</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.166353089149212</v>
+        <v>40.31663435099605</v>
       </c>
       <c r="AY2" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="BA2" t="n">
-        <v>137.1609080632528</v>
+        <v>32.75414566273579</v>
       </c>
       <c r="BB2" t="n">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>16.82924324127802</v>
+        <v>2007.991345065711</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.102346065518853</v>
+        <v>44.81061643255659</v>
       </c>
       <c r="BE2" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="BF2" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>51.43044629899438</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>40</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1444.869484765277</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>38.01143886733672</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>48.97013078473693</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>37</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1625.431005391914</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>40.31663435099605</v>
-      </c>
-      <c r="BQ2" t="n">
         <v>29</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>49</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>32.75414566273579</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>2007.991345065711</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>44.81061643255659</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>51.02854625651144</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>39</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1614.383248020209</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>40.17938834801009</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>31</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>51</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>126.7295789718628</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>18.18695630187146</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>4.264616782534095</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>130.3387759526571</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>52.08011642569901</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>7.216655487530149</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -1267,7 +979,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>1399.700672137089</v>
+        <v>1399.700672137088</v>
       </c>
       <c r="Z3" t="n">
         <v>37.41257371709528</v>
@@ -1315,166 +1027,58 @@
         <v>145</v>
       </c>
       <c r="AO3" t="n">
-        <v>63.92709601381112</v>
+        <v>60.47119917664505</v>
       </c>
       <c r="AP3" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1399.264568920176</v>
+        <v>1148.325546644134</v>
       </c>
       <c r="AR3" t="n">
-        <v>37.40674496558309</v>
+        <v>33.88695245436116</v>
       </c>
       <c r="AS3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT3" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AU3" t="n">
-        <v>104.0016426113928</v>
+        <v>57.90085434142671</v>
       </c>
       <c r="AV3" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AW3" t="n">
-        <v>103.5882716230635</v>
+        <v>1294.558888183582</v>
       </c>
       <c r="AX3" t="n">
-        <v>10.17783236367467</v>
+        <v>35.97997899087189</v>
       </c>
       <c r="AY3" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AZ3" t="n">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="BA3" t="n">
-        <v>141.9259888071433</v>
+        <v>39.64673950635387</v>
       </c>
       <c r="BB3" t="n">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="BC3" t="n">
-        <v>79.09776816910993</v>
+        <v>1685.751969798473</v>
       </c>
       <c r="BD3" t="n">
-        <v>8.893692605948889</v>
+        <v>41.05790995409377</v>
       </c>
       <c r="BE3" t="n">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="BF3" t="n">
-        <v>148</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>60.47119917664505</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>52</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1148.325546644134</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>33.88695245436116</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>42</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>66</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>57.90085434142671</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>49</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1294.558888183582</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>35.97997899087189</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>61</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>39.64673950635387</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1685.751969798473</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>41.05790995409377</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>18</v>
-      </c>
-      <c r="BX3" t="n">
         <v>43</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>60.21131947057391</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>1283.713154333453</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>35.8289429698038</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>41</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>65</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>121.9487761903479</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>72.92286701188964</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>8.539488685623375</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>116</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>138.9517624065284</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>177.5055480445853</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>13.32312080725028</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -1535,7 +1139,7 @@
         <v>69</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.512610951142</v>
+        <v>1560.512610951143</v>
       </c>
       <c r="T4" t="n">
         <v>39.50332404939035</v>
@@ -1601,166 +1205,58 @@
         <v>128</v>
       </c>
       <c r="AO4" t="n">
-        <v>56.67530467365583</v>
+        <v>54.63758420879069</v>
       </c>
       <c r="AP4" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1643.769710197678</v>
+        <v>1327.235575008378</v>
       </c>
       <c r="AR4" t="n">
-        <v>40.54342992640951</v>
+        <v>36.43124448887765</v>
       </c>
       <c r="AS4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AT4" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AU4" t="n">
-        <v>97.31292629241943</v>
+        <v>52.08329739700165</v>
       </c>
       <c r="AV4" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AW4" t="n">
-        <v>23.31285677062381</v>
+        <v>1484.296673416775</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.82833892458098</v>
+        <v>38.52657100517479</v>
       </c>
       <c r="AY4" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="BA4" t="n">
-        <v>136.9281377792358</v>
+        <v>36.36247739634936</v>
       </c>
       <c r="BB4" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>15.53330672525923</v>
+        <v>1855.493166670723</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.941231625426147</v>
+        <v>43.07543576878501</v>
       </c>
       <c r="BE4" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="BF4" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>54.63758420879069</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>45</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1327.235575008378</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>36.43124448887765</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>35</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>52.08329739700164</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>43</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>1484.296673416775</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>38.52657100517479</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>30</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>57</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>36.36247739634936</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>1855.493166670723</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>43.07543576878501</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>12</v>
-      </c>
-      <c r="BX4" t="n">
         <v>42</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>54.23931422607637</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>1476.896198701306</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>38.43040721487746</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>33</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>59</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>127.0047152837117</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>15.65922770760736</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>3.957174207386801</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>129.8872728347778</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>43.95832536464248</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>6.630107492691388</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -1887,166 +1383,58 @@
         <v>135</v>
       </c>
       <c r="AO5" t="n">
-        <v>71.12221173327286</v>
+        <v>65.04753548030898</v>
       </c>
       <c r="AP5" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1241.776908627478</v>
+        <v>1032.38867693996</v>
       </c>
       <c r="AR5" t="n">
-        <v>35.23885509813675</v>
+        <v>32.13080573125984</v>
       </c>
       <c r="AS5" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AT5" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AU5" t="n">
-        <v>104.0660769144694</v>
+        <v>59.60600219857142</v>
       </c>
       <c r="AV5" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="AW5" t="n">
-        <v>213.3896075097905</v>
+        <v>1216.967114260265</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.60786115452192</v>
+        <v>34.88505574397531</v>
       </c>
       <c r="AY5" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AZ5" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="BA5" t="n">
-        <v>141.2724040349325</v>
+        <v>21.88105901143159</v>
       </c>
       <c r="BB5" t="n">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>100.3187871077317</v>
+        <v>1673.609161595457</v>
       </c>
       <c r="BD5" t="n">
-        <v>10.01592667244183</v>
+        <v>40.90976853509999</v>
       </c>
       <c r="BE5" t="n">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="BF5" t="n">
-        <v>141</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>65.04753548030898</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1032.38867693996</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>32.13080573125984</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>71</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>59.60600219857142</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>53</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1216.967114260265</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>34.88505574397531</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>42</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>64</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>21.88105901143159</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>1673.609161595457</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>40.90976853509999</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BX5" t="n">
         <v>15</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>63.21710892787601</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>57</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1186.066728516083</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>34.43931951296486</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>45</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>68</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>121.8383954366048</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>130.1741873606792</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>11.40939031502907</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>122</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>138.164667447408</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>326.8593086963999</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>18.07925077807153</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -2062,7 +1450,7 @@
         <v>24.14819812222409</v>
       </c>
       <c r="D6" t="n">
-        <v>9869.611476890701</v>
+        <v>9869.611476890699</v>
       </c>
       <c r="E6" t="n">
         <v>15.38486442478326</v>
@@ -2074,7 +1462,7 @@
         <v>663.3205949877888</v>
       </c>
       <c r="H6" t="n">
-        <v>25.75501106557302</v>
+        <v>25.75501106557303</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
@@ -2128,7 +1516,7 @@
         <v>1370.212807635446</v>
       </c>
       <c r="Z6" t="n">
-        <v>37.0163856641278</v>
+        <v>37.01638566412779</v>
       </c>
       <c r="AA6" t="n">
         <v>50</v>
@@ -2173,166 +1561,58 @@
         <v>128</v>
       </c>
       <c r="AO6" t="n">
-        <v>71.39650714123852</v>
+        <v>66.20759414297378</v>
       </c>
       <c r="AP6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1370.262266601588</v>
+        <v>1142.014577816959</v>
       </c>
       <c r="AR6" t="n">
-        <v>37.01705372664858</v>
+        <v>33.79370618646258</v>
       </c>
       <c r="AS6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AT6" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AU6" t="n">
-        <v>98.58825238545735</v>
+        <v>62.24958791592554</v>
       </c>
       <c r="AV6" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="AW6" t="n">
-        <v>67.71012864089126</v>
+        <v>1314.090330638244</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.228616447550053</v>
+        <v>36.25038386883985</v>
       </c>
       <c r="AY6" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AZ6" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="BA6" t="n">
-        <v>137.8470385869344</v>
+        <v>32.63583874242185</v>
       </c>
       <c r="BB6" t="n">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>39.00655231223691</v>
+        <v>1840.847212308047</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.245522581196622</v>
+        <v>42.90509541194433</v>
       </c>
       <c r="BE6" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="BF6" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>66.20759414297378</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1142.014577816959</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>33.79370618646258</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>46</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>73</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>62.24958791592554</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>54</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>1314.090330638244</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>36.25038386883985</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>42</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>68</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>32.63583874242185</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>18</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>1840.847212308047</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>42.90509541194433</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>10</v>
-      </c>
-      <c r="BX6" t="n">
         <v>34</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>65.26228724510544</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>58</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1291.895184130998</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>35.94294345391037</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>45</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>72</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>126.0012976328532</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>43.13220173615247</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>6.56751107621087</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>131.3423665364583</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>108.8130766484482</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>10.43135066271133</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -2459,166 +1739,58 @@
         <v>128</v>
       </c>
       <c r="AO7" t="n">
-        <v>90.55635169001459</v>
+        <v>82.41285591951862</v>
       </c>
       <c r="AP7" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1369.131516355834</v>
+        <v>1169.025180812703</v>
       </c>
       <c r="AR7" t="n">
-        <v>37.00177720536993</v>
+        <v>34.19101023387147</v>
       </c>
       <c r="AS7" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AT7" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AU7" t="n">
-        <v>103.4350016911824</v>
+        <v>78.03735430477305</v>
       </c>
       <c r="AV7" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>214.4757378866806</v>
+        <v>1412.055504601733</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.64499019756178</v>
+        <v>37.5773270018203</v>
       </c>
       <c r="AY7" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="AZ7" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="BA7" t="n">
-        <v>141.5859603881836</v>
+        <v>37.2331809844587</v>
       </c>
       <c r="BB7" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
-        <v>129.5040688906835</v>
+        <v>1929.129667595418</v>
       </c>
       <c r="BD7" t="n">
-        <v>11.3799854521297</v>
+        <v>43.92185865369792</v>
       </c>
       <c r="BE7" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="BF7" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>82.41285591951862</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>74</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1169.025180812703</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>34.19101023387147</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>62</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>92</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>78.03735430477305</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>1412.055504601733</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>37.5773270018203</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>55</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>89</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>37.2331809844587</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>21</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>1929.129667595419</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>43.92185865369792</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>13</v>
-      </c>
-      <c r="BX7" t="n">
         <v>40</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>81.60848817211372</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>71</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1363.594742408876</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>36.92688373541527</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>59</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>93</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>122.1528600056966</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>138.0444998261455</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>11.74923401018745</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>137.1279433568319</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>316.2135171882184</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>17.78239346061768</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -2745,166 +1917,58 @@
         <v>156</v>
       </c>
       <c r="AO8" t="n">
-        <v>76.30946011949385</v>
+        <v>69.0571003430337</v>
       </c>
       <c r="AP8" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AQ8" t="n">
-        <v>854.3938724316714</v>
+        <v>695.4567227399029</v>
       </c>
       <c r="AR8" t="n">
-        <v>29.23001663413265</v>
+        <v>26.37151347078705</v>
       </c>
       <c r="AS8" t="n">
+        <v>54</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>77</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>65.16243553919898</v>
+      </c>
+      <c r="AV8" t="n">
         <v>59</v>
       </c>
-      <c r="AT8" t="n">
-        <v>87</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>105.9267529846663</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>96</v>
-      </c>
       <c r="AW8" t="n">
-        <v>219.437885673959</v>
+        <v>834.293720786157</v>
       </c>
       <c r="AX8" t="n">
-        <v>14.81343598473896</v>
+        <v>28.88414306823308</v>
       </c>
       <c r="AY8" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AZ8" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="BA8" t="n">
-        <v>143.6740096711817</v>
+        <v>25.39649639928213</v>
       </c>
       <c r="BB8" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="BC8" t="n">
-        <v>140.8412614419233</v>
+        <v>1001.005870752565</v>
       </c>
       <c r="BD8" t="n">
-        <v>11.86765610564796</v>
+        <v>31.63867681734755</v>
       </c>
       <c r="BE8" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="BF8" t="n">
-        <v>154</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>69.0571003430337</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>64</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>695.4567227399029</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>26.37151347078705</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>54</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>77</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>65.16243553919898</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>59</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>834.293720786157</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>28.88414306823308</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>49</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>74</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>25.39649639928213</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>15</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>1001.005870752565</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>31.63867681734755</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>8</v>
-      </c>
-      <c r="BX8" t="n">
         <v>30</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>68.25345021468003</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>62</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>807.5120681069233</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>28.41675681894264</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>52</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>77</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>119.6403606351229</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>160.5535997257944</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>12.67097469517615</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>107</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>140.4784920998451</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>337.0554489888107</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>18.35906993801186</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -3031,166 +2095,58 @@
         <v>157</v>
       </c>
       <c r="AO9" t="n">
-        <v>81.03408832950791</v>
+        <v>73.64371831412213</v>
       </c>
       <c r="AP9" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1179.390380851582</v>
+        <v>988.2977823386252</v>
       </c>
       <c r="AR9" t="n">
-        <v>34.34225357852309</v>
+        <v>31.43720379325466</v>
       </c>
       <c r="AS9" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT9" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AU9" t="n">
-        <v>107.3788610276368</v>
+        <v>69.99040280475194</v>
       </c>
       <c r="AV9" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="AW9" t="n">
-        <v>228.1744126607366</v>
+        <v>1183.841598311782</v>
       </c>
       <c r="AX9" t="n">
-        <v>15.10544314678443</v>
+        <v>34.40699926340252</v>
       </c>
       <c r="AY9" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AZ9" t="n">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="BA9" t="n">
-        <v>144.9448774159647</v>
+        <v>32.103458857753</v>
       </c>
       <c r="BB9" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="BC9" t="n">
-        <v>156.9648482603396</v>
+        <v>1576.784181964385</v>
       </c>
       <c r="BD9" t="n">
-        <v>12.52856130049814</v>
+        <v>39.70874188342392</v>
       </c>
       <c r="BE9" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="BF9" t="n">
-        <v>156</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>73.64371831412213</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>988.2977823386252</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>31.43720379325466</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>54</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>84</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>69.99040280475194</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>62</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>1183.841598311782</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>34.40699926340252</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>49</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>83</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>32.103458857753</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>1576.784181964385</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>39.70874188342392</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>8</v>
-      </c>
-      <c r="BX9" t="n">
         <v>36</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>73.07390639056339</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>65</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>1146.6291508048</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>33.8619129820629</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>52</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>85</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>118.5313874246679</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>166.7278265936989</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>12.91231298388088</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>106</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>142.346434142897</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>352.4103937496778</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>18.77259688348093</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -3317,166 +2273,58 @@
         <v>165</v>
       </c>
       <c r="AO10" t="n">
-        <v>94.04448554381536</v>
+        <v>85.48941764400784</v>
       </c>
       <c r="AP10" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1381.333286891958</v>
+        <v>1139.397444471141</v>
       </c>
       <c r="AR10" t="n">
-        <v>37.16629234793213</v>
+        <v>33.75496177558406</v>
       </c>
       <c r="AS10" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AT10" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AU10" t="n">
-        <v>113.6118028186377</v>
+        <v>80.97866758980538</v>
       </c>
       <c r="AV10" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AW10" t="n">
-        <v>359.4624484933952</v>
+        <v>1363.664279072709</v>
       </c>
       <c r="AX10" t="n">
-        <v>18.95949494299348</v>
+        <v>36.92782526866034</v>
       </c>
       <c r="AY10" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="AZ10" t="n">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="BA10" t="n">
-        <v>149.4795019705809</v>
+        <v>37.79833691289156</v>
       </c>
       <c r="BB10" t="n">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
-        <v>244.6716032022055</v>
+        <v>1647.865520422612</v>
       </c>
       <c r="BD10" t="n">
-        <v>15.64198207396382</v>
+        <v>40.59390989326616</v>
       </c>
       <c r="BE10" t="n">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="BF10" t="n">
-        <v>163</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>85.48941764400784</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>83</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1139.397444471141</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>33.75496177558406</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>62</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>105</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>80.97866758980538</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>78</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1363.664279072709</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>36.92782526866034</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>54</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>102</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>37.79833691289156</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>24</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>1647.865520422612</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>40.59390989326616</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BX10" t="n">
         <v>53</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>84.66241152422101</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>82</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>1322.70041725695</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>36.3689485310883</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>59</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>105</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>114.0180567087371</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>246.7167629583285</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>15.70722009008369</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>99</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>149.6535512151613</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>523.2349146780023</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>22.87432872628183</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -3489,7 +2337,7 @@
         <v>200833.3333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>19.62489458593355</v>
+        <v>19.62489458593354</v>
       </c>
       <c r="D11" t="n">
         <v>10233.60061649879</v>
@@ -3594,7 +2442,7 @@
         <v>95.60150961271432</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.777602447057987</v>
+        <v>9.777602447057989</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
@@ -3603,166 +2451,58 @@
         <v>128</v>
       </c>
       <c r="AO11" t="n">
-        <v>92.1473027222967</v>
+        <v>83.1348199586709</v>
       </c>
       <c r="AP11" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1027.064539164546</v>
+        <v>889.0729271268584</v>
       </c>
       <c r="AR11" t="n">
-        <v>32.04784765260447</v>
+        <v>29.81732595533775</v>
       </c>
       <c r="AS11" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AT11" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AU11" t="n">
-        <v>98.59110736846924</v>
+        <v>80.01762025355136</v>
       </c>
       <c r="AV11" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AW11" t="n">
-        <v>80.1826600136129</v>
+        <v>1086.662761860231</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.954477093254129</v>
+        <v>32.96456827959728</v>
       </c>
       <c r="AY11" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AZ11" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA11" t="n">
-        <v>138.1531225840251</v>
+        <v>38.49949771009278</v>
       </c>
       <c r="BB11" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>57.36203435499905</v>
+        <v>1696.396087806956</v>
       </c>
       <c r="BD11" t="n">
-        <v>7.573772795311399</v>
+        <v>41.18732921429788</v>
       </c>
       <c r="BE11" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="BF11" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>83.1348199586709</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>78</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>889.0729271268584</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>29.81732595533775</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>66</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>92</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>80.01762025355136</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>75</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>1086.662761860231</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>32.96456827959728</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>90</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>38.49949771009278</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>25</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>1696.396087806956</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>41.18732921429788</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>13</v>
-      </c>
-      <c r="BX11" t="n">
         <v>47</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>83.11840290907979</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>78</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>1043.306075021197</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>32.30024883837889</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>64</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>93</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>125.7879486083984</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>59.87909693620168</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>7.738158497743612</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>131.2087167104085</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>121.1546248449686</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>11.00702615809414</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -3781,13 +2521,13 @@
         <v>7103.575797432602</v>
       </c>
       <c r="E12" t="n">
-        <v>13.24868994031037</v>
+        <v>13.24868994031036</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>103.3045398767155</v>
+        <v>103.3045398767154</v>
       </c>
       <c r="H12" t="n">
         <v>10.1638840940221</v>
@@ -3889,166 +2629,58 @@
         <v>128</v>
       </c>
       <c r="AO12" t="n">
-        <v>103.3431775970482</v>
+        <v>94.25091683926036</v>
       </c>
       <c r="AP12" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1014.35411977754</v>
+        <v>872.7436255725815</v>
       </c>
       <c r="AR12" t="n">
-        <v>31.84892650902916</v>
+        <v>29.54223460695859</v>
       </c>
       <c r="AS12" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AT12" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AU12" t="n">
-        <v>99.50841458638509</v>
+        <v>92.40515966056437</v>
       </c>
       <c r="AV12" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AW12" t="n">
-        <v>89.82717490701602</v>
+        <v>1030.670983653962</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.477719921321585</v>
+        <v>32.10406490857445</v>
       </c>
       <c r="AY12" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="AZ12" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BA12" t="n">
-        <v>139.3117341995239</v>
+        <v>57.79668421196578</v>
       </c>
       <c r="BB12" t="n">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="BC12" t="n">
-        <v>82.08187000916327</v>
+        <v>1449.410650149218</v>
       </c>
       <c r="BD12" t="n">
-        <v>9.059904525388955</v>
+        <v>38.07112620016931</v>
       </c>
       <c r="BE12" t="n">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="BF12" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>94.25091683926036</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>92</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>872.7436255725815</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>29.54223460695859</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>74</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>111</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>92.40515966056435</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>90</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>1030.670983653961</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>32.10406490857445</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>70</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>111</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>57.79668421196578</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>50</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>1449.410650149218</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>38.07112620016931</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>31</v>
-      </c>
-      <c r="BX12" t="n">
         <v>77</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>95.20793541473456</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>93</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>1003.184422443058</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>31.67308672111163</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>73</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>113</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>124.996148109436</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>67.3523471599072</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>8.206847577474996</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>132.4037745793661</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>139.0231814897541</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>11.79080919571486</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -4061,10 +2693,10 @@
         <v>191666.6666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>37.15739959895804</v>
+        <v>37.15739959895805</v>
       </c>
       <c r="D13" t="n">
-        <v>5158.236817843446</v>
+        <v>5158.236817843444</v>
       </c>
       <c r="E13" t="n">
         <v>15.24772632233797</v>
@@ -4175,166 +2807,58 @@
         <v>128</v>
       </c>
       <c r="AO13" t="n">
-        <v>126.4051270050374</v>
+        <v>113.9781717972358</v>
       </c>
       <c r="AP13" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1067.389227136833</v>
+        <v>1006.08376183221</v>
       </c>
       <c r="AR13" t="n">
-        <v>32.67092326728513</v>
+        <v>31.71882346229459</v>
       </c>
       <c r="AS13" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AT13" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AU13" t="n">
-        <v>101.8422616322835</v>
+        <v>112.4529493291156</v>
       </c>
       <c r="AV13" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AW13" t="n">
-        <v>195.3673006396163</v>
+        <v>1242.4055424081</v>
       </c>
       <c r="AX13" t="n">
-        <v>13.97738532915282</v>
+        <v>35.24777358086748</v>
       </c>
       <c r="AY13" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AZ13" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="BA13" t="n">
-        <v>141.6658328374227</v>
+        <v>58.08113353332432</v>
       </c>
       <c r="BB13" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="BC13" t="n">
-        <v>188.494297285991</v>
+        <v>2229.777679255925</v>
       </c>
       <c r="BD13" t="n">
-        <v>13.72932253558023</v>
+        <v>47.22052180202931</v>
       </c>
       <c r="BE13" t="n">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="BF13" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>113.9781717972358</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>110</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1006.08376183221</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>31.71882346229459</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>92</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>130</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>112.4529493291156</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>108</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>1242.4055424081</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>35.24777358086748</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>89</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>130</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>58.08113353332432</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>47</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>2229.777679255925</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>47.22052180202931</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>22</v>
-      </c>
-      <c r="BX13" t="n">
         <v>78</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>115.6294208667128</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>111</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>1187.698709428388</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>34.46300493904134</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>92</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>133</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>122.5339393615723</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>176.3684388790134</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>13.28037796446372</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>135.1483821868896</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>288.6540494431239</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>16.9898219367692</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -4431,7 +2955,7 @@
         <v>128</v>
       </c>
       <c r="AE14" t="n">
-        <v>96.57294512695837</v>
+        <v>96.57294512695836</v>
       </c>
       <c r="AF14" t="n">
         <v>9.827153460028921</v>
@@ -4461,166 +2985,58 @@
         <v>159</v>
       </c>
       <c r="AO14" t="n">
-        <v>102.5884622210326</v>
+        <v>92.68930214155004</v>
       </c>
       <c r="AP14" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1021.909371568025</v>
+        <v>870.6458146033427</v>
       </c>
       <c r="AR14" t="n">
-        <v>31.96731724070734</v>
+        <v>29.50670795943429</v>
       </c>
       <c r="AS14" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AT14" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AU14" t="n">
-        <v>106.7279660793207</v>
+        <v>90.86550507239842</v>
       </c>
       <c r="AV14" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AW14" t="n">
-        <v>222.0373243282347</v>
+        <v>1065.569389985517</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.90091689555494</v>
+        <v>32.64306036488486</v>
       </c>
       <c r="AY14" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="AZ14" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="BA14" t="n">
-        <v>146.2745146079638</v>
+        <v>49.8932657983318</v>
       </c>
       <c r="BB14" t="n">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="BC14" t="n">
-        <v>206.5417340772684</v>
+        <v>1469.051891326282</v>
       </c>
       <c r="BD14" t="n">
-        <v>14.37155990410465</v>
+        <v>38.32821273326323</v>
       </c>
       <c r="BE14" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="BF14" t="n">
-        <v>161</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>92.68930214155003</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>90</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>870.6458146033427</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>29.50670795943429</v>
-      </c>
-      <c r="BK14" t="n">
         <v>72</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>110</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>90.86550507239842</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>89</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>1065.569389985517</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>32.64306036488486</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>111</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>49.8932657983318</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>39</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>1469.051891326282</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>38.32821273326323</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>72</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>93.64590091439909</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>91</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>1023.565905953612</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>31.99321656154023</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>71</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>113</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>118.300250814487</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>182.5719701244901</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>13.51191955735713</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>104</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>141.3945496691889</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>337.6246138997089</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>18.37456431863648</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -4747,166 +3163,58 @@
         <v>162</v>
       </c>
       <c r="AO15" t="n">
-        <v>145.9775346104603</v>
+        <v>133.3506036638627</v>
       </c>
       <c r="AP15" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1069.742474498117</v>
+        <v>1023.730187525219</v>
       </c>
       <c r="AR15" t="n">
-        <v>32.70691783855698</v>
+        <v>31.99578390233969</v>
       </c>
       <c r="AS15" t="n">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="AT15" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AU15" t="n">
-        <v>108.7584820280162</v>
+        <v>133.8343244827875</v>
       </c>
       <c r="AV15" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="AW15" t="n">
-        <v>284.8830958365904</v>
+        <v>1245.2518463713</v>
       </c>
       <c r="AX15" t="n">
-        <v>16.87848025850048</v>
+        <v>35.28812613856537</v>
       </c>
       <c r="AY15" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="AZ15" t="n">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="BA15" t="n">
-        <v>150.3862316129183</v>
+        <v>86.38271331650174</v>
       </c>
       <c r="BB15" t="n">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="BC15" t="n">
-        <v>361.1486280456984</v>
+        <v>2246.838370118679</v>
       </c>
       <c r="BD15" t="n">
-        <v>19.00391086186468</v>
+        <v>47.40082668180671</v>
       </c>
       <c r="BE15" t="n">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="BF15" t="n">
-        <v>171</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>133.3506036638627</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>131</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>1023.730187525219</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>31.99578390233969</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>111</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>155</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>133.8343244827875</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>131</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>1245.2518463713</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>35.28812613856537</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>110</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>158</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>86.38271331650174</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>82</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>2246.838370118679</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>47.40082668180671</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>52</v>
-      </c>
-      <c r="BX15" t="n">
         <v>115</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>136.5870167398562</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>134</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>1197.620420979426</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>34.6066528427617</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>113</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>160</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>115.5106943242674</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>280.9928149361689</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>16.76284030038373</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>99</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>143.9788966581698</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>434.8087008335709</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>20.85206706380859</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -5033,166 +3341,58 @@
         <v>156</v>
       </c>
       <c r="AO16" t="n">
-        <v>156.8924913436161</v>
+        <v>144.3357950555703</v>
       </c>
       <c r="AP16" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1042.511007920557</v>
+        <v>1041.429916057538</v>
       </c>
       <c r="AR16" t="n">
-        <v>32.28793904727518</v>
+        <v>32.27119328530537</v>
       </c>
       <c r="AS16" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AT16" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AU16" t="n">
-        <v>107.3962101051221</v>
+        <v>145.329087871377</v>
       </c>
       <c r="AV16" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="AW16" t="n">
-        <v>267.8899606046168</v>
+        <v>1257.210057989829</v>
       </c>
       <c r="AX16" t="n">
-        <v>16.36734433573806</v>
+        <v>35.45715806420233</v>
       </c>
       <c r="AY16" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AZ16" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="BA16" t="n">
-        <v>148.9233534769939</v>
+        <v>101.2706867214482</v>
       </c>
       <c r="BB16" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="BC16" t="n">
-        <v>336.7056463886603</v>
+        <v>2699.612162420537</v>
       </c>
       <c r="BD16" t="n">
-        <v>18.34954076778654</v>
+        <v>51.95779212418996</v>
       </c>
       <c r="BE16" t="n">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="BF16" t="n">
-        <v>168</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>144.3357950555703</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>146</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>1041.429916057538</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>32.27119328530537</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>122</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>169</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>145.329087871377</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>147</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>1257.210057989829</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>35.45715806420233</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>122</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>172</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>101.2706867214482</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>102</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>2699.612162420537</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>51.95779212418996</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>60</v>
-      </c>
-      <c r="BX16" t="n">
         <v>142</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>148.0959565386791</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>150</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>1211.781181280123</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>34.81064752744659</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>125</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>174</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>116.9730920940347</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>258.0455616084456</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>16.06379661252114</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>103</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>142.360382150104</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>411.3512929644501</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>20.28179708419474</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -5247,7 +3447,7 @@
         <v>198</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.5275432688543</v>
+        <v>188.5275432688542</v>
       </c>
       <c r="R17" t="n">
         <v>192</v>
@@ -5289,10 +3489,10 @@
         <v>128</v>
       </c>
       <c r="AE17" t="n">
-        <v>99.41033248536155</v>
+        <v>99.41033248536156</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.970473032176635</v>
+        <v>9.970473032176637</v>
       </c>
       <c r="AG17" t="n">
         <v>128</v>
@@ -5310,7 +3510,7 @@
         <v>395.783393877133</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.89430556408373</v>
+        <v>19.89430556408374</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
@@ -5319,166 +3519,58 @@
         <v>163</v>
       </c>
       <c r="AO17" t="n">
-        <v>151.2921979011669</v>
+        <v>138.6750978933354</v>
       </c>
       <c r="AP17" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1033.775014700909</v>
+        <v>1026.768616317068</v>
       </c>
       <c r="AR17" t="n">
-        <v>32.15237183631884</v>
+        <v>32.04323042886075</v>
       </c>
       <c r="AS17" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="AT17" t="n">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AU17" t="n">
-        <v>110.207040757129</v>
+        <v>139.2821971180202</v>
       </c>
       <c r="AV17" t="n">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AW17" t="n">
-        <v>300.4950909819918</v>
+        <v>1242.168228754002</v>
       </c>
       <c r="AX17" t="n">
-        <v>17.33479422958322</v>
+        <v>35.24440705635438</v>
       </c>
       <c r="AY17" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="AZ17" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="BA17" t="n">
-        <v>151.7640468434079</v>
+        <v>93.57428342078472</v>
       </c>
       <c r="BB17" t="n">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="BC17" t="n">
-        <v>367.4444642763809</v>
+        <v>2686.997998302005</v>
       </c>
       <c r="BD17" t="n">
-        <v>19.16884097373602</v>
+        <v>51.83626142288818</v>
       </c>
       <c r="BE17" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="BF17" t="n">
-        <v>172</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>138.6750978933354</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>141</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>1026.768616317068</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>32.04323042886075</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>118</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>139.2821971180202</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>142</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>1242.168228754002</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>35.24440705635438</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>119</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>164</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>93.57428342078471</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>97</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>2686.997998302005</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>51.83626142288818</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>53</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>142.0877163442713</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>145</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>1195.751370765808</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>34.5796380947778</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>121</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>166</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>114.2799731215093</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>292.0745383874604</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>17.0901883660614</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>98</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>145.8338931588577</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>457.846700082011</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>21.39735264190435</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -5494,7 +3586,7 @@
         <v>29.8336987687637</v>
       </c>
       <c r="D18" t="n">
-        <v>6508.300166587519</v>
+        <v>6508.300166587518</v>
       </c>
       <c r="E18" t="n">
         <v>15.00456850836533</v>
@@ -5605,166 +3697,58 @@
         <v>128</v>
       </c>
       <c r="AO18" t="n">
-        <v>147.7895017198968</v>
+        <v>135.7508197462744</v>
       </c>
       <c r="AP18" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AQ18" t="n">
-        <v>981.135371319524</v>
+        <v>976.71126977142</v>
       </c>
       <c r="AR18" t="n">
-        <v>31.32308048898646</v>
+        <v>31.25238022569513</v>
       </c>
       <c r="AS18" t="n">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="AT18" t="n">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AU18" t="n">
-        <v>100.2328335444133</v>
+        <v>135.4810409332921</v>
       </c>
       <c r="AV18" t="n">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AW18" t="n">
-        <v>136.0604077956615</v>
+        <v>1178.979329062769</v>
       </c>
       <c r="AX18" t="n">
-        <v>11.66449346502717</v>
+        <v>34.3362684207642</v>
       </c>
       <c r="AY18" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="AZ18" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="BA18" t="n">
-        <v>140.4066123962402</v>
+        <v>91.08430886280776</v>
       </c>
       <c r="BB18" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="BC18" t="n">
-        <v>148.4140622891961</v>
+        <v>2519.923694123248</v>
       </c>
       <c r="BD18" t="n">
-        <v>12.18253102968329</v>
+        <v>50.19884156156642</v>
       </c>
       <c r="BE18" t="n">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="BF18" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>135.7508197462744</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>138</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>976.7112697714201</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>31.25238022569513</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>116</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>155</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>135.4810409332921</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>137</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>1178.979329062769</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>34.3362684207642</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>115</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>157</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>91.08430886280776</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>95</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>2519.923694123248</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>50.19884156156642</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BX18" t="n">
         <v>122</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>138.5684528969394</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>140</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1135.227874020394</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>33.69314283382293</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>118</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>160</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>124.1339295705159</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>117.9385791360107</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>10.85995299879381</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>133.27090771993</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>206.6474876083563</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>14.3752386974393</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -5780,7 +3764,7 @@
         <v>22.01907760349319</v>
       </c>
       <c r="D19" t="n">
-        <v>6358.122829713351</v>
+        <v>6358.122829713352</v>
       </c>
       <c r="E19" t="n">
         <v>15.34201727743044</v>
@@ -5801,7 +3785,7 @@
         <v>16</v>
       </c>
       <c r="K19" t="n">
-        <v>151.1321849976387</v>
+        <v>151.1321849976388</v>
       </c>
       <c r="L19" t="n">
         <v>145</v>
@@ -5864,7 +3848,7 @@
         <v>94.03884783508074</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.697362932007895</v>
+        <v>9.697362932007897</v>
       </c>
       <c r="AG19" t="n">
         <v>128</v>
@@ -5891,166 +3875,58 @@
         <v>162</v>
       </c>
       <c r="AO19" t="n">
-        <v>151.5405971267107</v>
+        <v>139.0989820930074</v>
       </c>
       <c r="AP19" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AQ19" t="n">
-        <v>825.2986820973106</v>
+        <v>830.5166715314421</v>
       </c>
       <c r="AR19" t="n">
-        <v>28.72801215011771</v>
+        <v>28.8186861520688</v>
       </c>
       <c r="AS19" t="n">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="AT19" t="n">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AU19" t="n">
-        <v>110.753399636909</v>
+        <v>139.7018724041669</v>
       </c>
       <c r="AV19" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AW19" t="n">
-        <v>293.6321758684691</v>
+        <v>1002.218582318301</v>
       </c>
       <c r="AX19" t="n">
-        <v>17.13569887306815</v>
+        <v>31.65783603341045</v>
       </c>
       <c r="AY19" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AZ19" t="n">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="BA19" t="n">
-        <v>152.4082026995027</v>
+        <v>95.89620412609791</v>
       </c>
       <c r="BB19" t="n">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="BC19" t="n">
-        <v>360.4740683223198</v>
+        <v>2326.73857958603</v>
       </c>
       <c r="BD19" t="n">
-        <v>18.98615464811976</v>
+        <v>48.2362786664356</v>
       </c>
       <c r="BE19" t="n">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="BF19" t="n">
-        <v>172</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>139.0989820930074</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>138</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>830.5166715314421</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>28.8186861520688</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>121</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>156</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>139.7018724041669</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>138</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>1002.218582318301</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>31.65783603341045</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>122</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>159</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>95.89620412609791</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>97</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>2326.73857958603</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>48.2362786664356</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BX19" t="n">
         <v>124</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>142.5104241846531</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>141</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>965.5847520975917</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>31.07385962666356</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>124</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>161</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>113.9332907096061</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>281.54417880735</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>16.77927825644923</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>99</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>146.5224611255821</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>448.3209170780729</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>21.17359008477478</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -6066,7 +3942,7 @@
         <v>39.38734281591424</v>
       </c>
       <c r="D20" t="n">
-        <v>6622.262754621393</v>
+        <v>6622.262754621392</v>
       </c>
       <c r="E20" t="n">
         <v>15.12960207716224</v>
@@ -6177,166 +4053,58 @@
         <v>128</v>
       </c>
       <c r="AO20" t="n">
-        <v>153.3012920673649</v>
+        <v>140.2535832078822</v>
       </c>
       <c r="AP20" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AQ20" t="n">
-        <v>891.8016783226446</v>
+        <v>879.563966881311</v>
       </c>
       <c r="AR20" t="n">
-        <v>29.86304871111864</v>
+        <v>29.65744370105608</v>
       </c>
       <c r="AS20" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AT20" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AU20" t="n">
-        <v>101.3089866638184</v>
+        <v>141.4083305895854</v>
       </c>
       <c r="AV20" t="n">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="AW20" t="n">
-        <v>157.9191489762015</v>
+        <v>1095.142918856767</v>
       </c>
       <c r="AX20" t="n">
-        <v>12.56658859739593</v>
+        <v>33.09294364145878</v>
       </c>
       <c r="AY20" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AZ20" t="n">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="BA20" t="n">
-        <v>142.1845496495565</v>
+        <v>94.95417148012037</v>
       </c>
       <c r="BB20" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="BC20" t="n">
-        <v>206.9793999966921</v>
+        <v>2430.610544079007</v>
       </c>
       <c r="BD20" t="n">
-        <v>14.38677865252302</v>
+        <v>49.30122254142393</v>
       </c>
       <c r="BE20" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="BF20" t="n">
-        <v>136</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>140.2535832078822</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>140</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>879.563966881311</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>29.65744370105608</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>121</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>158</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>141.4083305895854</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>140</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>1095.142918856767</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>33.09294364145878</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>122</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>162</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>94.95417148012035</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>95</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>2430.610544079007</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>49.30122254142393</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>59</v>
-      </c>
-      <c r="BX20" t="n">
         <v>123</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>144.04752615442</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>143</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1042.645388841805</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>32.2900199572841</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>124</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>164</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>122.7012424468994</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>158.3390886510259</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>12.58328608317501</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>134.6793622970581</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>243.1977810249169</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>15.59479980714459</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -6463,166 +4231,58 @@
         <v>150</v>
       </c>
       <c r="AO21" t="n">
-        <v>146.8590072180203</v>
+        <v>134.9425266603606</v>
       </c>
       <c r="AP21" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AQ21" t="n">
-        <v>874.0791401853594</v>
+        <v>859.2288038570197</v>
       </c>
       <c r="AR21" t="n">
-        <v>29.56482944624168</v>
+        <v>29.31260486304518</v>
       </c>
       <c r="AS21" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="AT21" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AU21" t="n">
-        <v>105.3593229758747</v>
+        <v>135.4925641438266</v>
       </c>
       <c r="AV21" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AW21" t="n">
-        <v>214.8676938702983</v>
+        <v>1045.745264180998</v>
       </c>
       <c r="AX21" t="n">
-        <v>14.65836600274049</v>
+        <v>32.33798485034276</v>
       </c>
       <c r="AY21" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AZ21" t="n">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="BA21" t="n">
-        <v>146.2037653151446</v>
+        <v>98.00585213067011</v>
       </c>
       <c r="BB21" t="n">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>251.6328702483207</v>
+        <v>2287.831627702728</v>
       </c>
       <c r="BD21" t="n">
-        <v>15.86294015144484</v>
+        <v>47.83128294017136</v>
       </c>
       <c r="BE21" t="n">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="BF21" t="n">
-        <v>162</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>134.9425266603606</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>135</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>859.2288038570197</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>29.31260486304518</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>117</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>149</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>135.4925641438266</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>134</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>1045.745264180998</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>32.33798485034276</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>117</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>98.00585213067011</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>2287.831627702728</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>47.83128294017136</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>63</v>
-      </c>
-      <c r="BX21" t="n">
         <v>126</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>138.2128079629797</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>137</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1004.159835642087</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>31.68848111920303</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>119</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>153</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>119.376017430845</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>190.4071254805602</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>13.79880884281539</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>109</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>139.7894189718328</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>329.8148055611053</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>18.16080410006961</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="22">
@@ -6638,7 +4298,7 @@
         <v>20.87344689942093</v>
       </c>
       <c r="D22" t="n">
-        <v>4431.46742585031</v>
+        <v>4431.467425850311</v>
       </c>
       <c r="E22" t="n">
         <v>14.40421273699847</v>
@@ -6665,7 +4325,7 @@
         <v>117</v>
       </c>
       <c r="M22" t="n">
-        <v>1418.089751836151</v>
+        <v>1418.08975183615</v>
       </c>
       <c r="N22" t="n">
         <v>37.65753247142131</v>
@@ -6749,166 +4409,58 @@
         <v>154</v>
       </c>
       <c r="AO22" t="n">
-        <v>171.8703426381811</v>
+        <v>159.3761227047623</v>
       </c>
       <c r="AP22" t="n">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="AQ22" t="n">
-        <v>537.8931140197908</v>
+        <v>550.7951790209598</v>
       </c>
       <c r="AR22" t="n">
-        <v>23.19252280412355</v>
+        <v>23.46902594955658</v>
       </c>
       <c r="AS22" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AT22" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AU22" t="n">
-        <v>106.5156698895824</v>
+        <v>162.1386569560112</v>
       </c>
       <c r="AV22" t="n">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="AW22" t="n">
-        <v>188.186062446853</v>
+        <v>659.065796352501</v>
       </c>
       <c r="AX22" t="n">
-        <v>13.71809252217133</v>
+        <v>25.67227680499922</v>
       </c>
       <c r="AY22" t="n">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="AZ22" t="n">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="BA22" t="n">
-        <v>149.5054891486195</v>
+        <v>127.9528113855999</v>
       </c>
       <c r="BB22" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="BC22" t="n">
-        <v>309.0063041679172</v>
+        <v>1599.337125450632</v>
       </c>
       <c r="BD22" t="n">
-        <v>17.57857514612368</v>
+        <v>39.99171320974675</v>
       </c>
       <c r="BE22" t="n">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="BF22" t="n">
-        <v>167</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>159.3761227047623</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>159</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>550.7951790209598</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>23.46902594955657</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>144</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>176</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>162.1386569560112</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>163</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>659.065796352501</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>25.67227680499922</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>145</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>180</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>127.9528113855999</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>125</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>1599.337125450632</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>39.99171320974675</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>104</v>
-      </c>
-      <c r="BX22" t="n">
         <v>157</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>164.4903306435105</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>165</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>636.2851579068138</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>25.22469341551674</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>148</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>182</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>117.4711913442789</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>196.7827020386028</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>14.02792579245424</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>105</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>141.6723067692769</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>308.1596903313408</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>17.55447778577707</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_merge_data.xlsx
+++ b/stage2_excels/PD/PD_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF22"/>
+  <dimension ref="A1:BX22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -902,6 +992,60 @@
       <c r="BF2" t="n">
         <v>29</v>
       </c>
+      <c r="BG2" t="n">
+        <v>51.02854625651144</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>39</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1614.383248020209</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>40.17938834801009</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>31</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>126.7295789718628</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>18.18695630187145</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>4.264616782534095</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>130.3387759526571</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>52.08011642569901</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>7.216655487530149</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1224,60 @@
       <c r="BF3" t="n">
         <v>43</v>
       </c>
+      <c r="BG3" t="n">
+        <v>60.21131947057391</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1283.713154333453</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>35.8289429698038</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>121.9487761903479</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>72.92286701188964</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>8.539488685623375</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>138.9517624065284</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>177.5055480445853</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>13.32312080725028</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1258,6 +1456,60 @@
       <c r="BF4" t="n">
         <v>42</v>
       </c>
+      <c r="BG4" t="n">
+        <v>54.23931422607637</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>44</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1476.896198701306</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>38.43040721487746</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>33</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>59</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>127.0047152837118</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>15.65922770760736</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3.957174207386801</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>129.8872728347778</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>43.95832536464248</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>6.630107492691388</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1436,6 +1688,60 @@
       <c r="BF5" t="n">
         <v>15</v>
       </c>
+      <c r="BG5" t="n">
+        <v>63.21710892787601</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>57</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1186.066728516082</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>34.43931951296486</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>68</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>121.8383954366048</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>130.1741873606792</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>11.40939031502907</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>122</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>138.164667447408</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>326.8593086963999</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>18.07925077807153</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1614,6 +1920,60 @@
       <c r="BF6" t="n">
         <v>34</v>
       </c>
+      <c r="BG6" t="n">
+        <v>65.26228724510544</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1291.895184130998</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>35.94294345391037</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>72</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>126.0012976328532</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>43.13220173615247</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>6.56751107621087</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>131.3423665364583</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>108.8130766484482</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>10.43135066271134</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1792,6 +2152,60 @@
       <c r="BF7" t="n">
         <v>40</v>
       </c>
+      <c r="BG7" t="n">
+        <v>81.60848817211372</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>71</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1363.594742408876</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>36.92688373541527</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>59</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>122.1528600056966</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>138.0444998261455</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>11.74923401018745</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>137.1279433568319</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>316.2135171882184</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>17.78239346061768</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1970,6 +2384,60 @@
       <c r="BF8" t="n">
         <v>30</v>
       </c>
+      <c r="BG8" t="n">
+        <v>68.25345021468003</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>62</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>807.5120681069233</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>28.41675681894264</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>77</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>119.640360635123</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>160.5535997257944</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>12.67097469517615</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>107</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>140.4784920998451</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>337.0554489888107</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>18.35906993801186</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2148,6 +2616,60 @@
       <c r="BF9" t="n">
         <v>36</v>
       </c>
+      <c r="BG9" t="n">
+        <v>73.07390639056339</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>65</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1146.6291508048</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>33.8619129820629</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>118.5313874246679</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>166.7278265936989</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>12.91231298388088</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>106</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>142.346434142897</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>352.4103937496778</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>18.77259688348093</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2326,6 +2848,60 @@
       <c r="BF10" t="n">
         <v>53</v>
       </c>
+      <c r="BG10" t="n">
+        <v>84.66241152422101</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>82</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1322.70041725695</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>36.3689485310883</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>59</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>105</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>114.0180567087372</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>246.7167629583285</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>15.70722009008369</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>99</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>149.6535512151613</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>523.2349146780023</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>22.87432872628183</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2504,6 +3080,60 @@
       <c r="BF11" t="n">
         <v>47</v>
       </c>
+      <c r="BG11" t="n">
+        <v>83.11840290907979</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>78</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1043.306075021197</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>32.30024883837889</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>64</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>125.7879486083984</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>59.87909693620168</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>7.738158497743612</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>131.2087167104085</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>121.1546248449686</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>11.00702615809414</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2682,6 +3312,60 @@
       <c r="BF12" t="n">
         <v>77</v>
       </c>
+      <c r="BG12" t="n">
+        <v>95.20793541473456</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>93</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1003.184422443058</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>31.67308672111163</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>73</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>113</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>124.996148109436</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>67.3523471599072</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>8.206847577474996</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>132.4037745793661</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>139.0231814897541</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>11.79080919571486</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2860,6 +3544,60 @@
       <c r="BF13" t="n">
         <v>78</v>
       </c>
+      <c r="BG13" t="n">
+        <v>115.6294208667128</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>111</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1187.698709428388</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>34.46300493904134</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>92</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>133</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>122.5339393615723</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>176.3684388790134</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>13.28037796446372</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>135.1483821868896</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>288.6540494431239</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>16.9898219367692</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3038,6 +3776,60 @@
       <c r="BF14" t="n">
         <v>72</v>
       </c>
+      <c r="BG14" t="n">
+        <v>93.64590091439908</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>91</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1023.565905953612</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>31.99321656154022</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>71</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>113</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>118.300250814487</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>182.5719701244901</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>13.51191955735713</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>104</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>141.3945496691889</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>337.6246138997089</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>18.37456431863648</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3216,6 +4008,60 @@
       <c r="BF15" t="n">
         <v>115</v>
       </c>
+      <c r="BG15" t="n">
+        <v>136.5870167398562</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>134</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1197.620420979426</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>34.6066528427617</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>113</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>160</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>115.5106943242674</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>280.9928149361689</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>16.76284030038373</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>99</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>143.9788966581698</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>434.8087008335709</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>20.85206706380859</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3394,6 +4240,60 @@
       <c r="BF16" t="n">
         <v>142</v>
       </c>
+      <c r="BG16" t="n">
+        <v>148.0959565386791</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>150</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1211.781181280123</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>34.81064752744659</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>125</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>174</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>116.9730920940347</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>258.0455616084456</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>16.06379661252114</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>103</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>142.360382150104</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>411.3512929644501</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>20.28179708419474</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3572,6 +4472,60 @@
       <c r="BF17" t="n">
         <v>128</v>
       </c>
+      <c r="BG17" t="n">
+        <v>142.0877163442713</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1195.751370765808</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>34.5796380947778</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>121</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>166</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>114.2799731215093</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>292.0745383874604</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>17.0901883660614</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>98</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>145.8338931588577</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>457.846700082011</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>21.39735264190435</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3750,6 +4704,60 @@
       <c r="BF18" t="n">
         <v>122</v>
       </c>
+      <c r="BG18" t="n">
+        <v>138.5684528969394</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>140</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1135.227874020394</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>33.69314283382293</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>160</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>124.133929570516</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>117.9385791360107</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>10.85995299879381</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>133.27090771993</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>206.6474876083563</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>14.3752386974393</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3928,6 +4936,60 @@
       <c r="BF19" t="n">
         <v>124</v>
       </c>
+      <c r="BG19" t="n">
+        <v>142.5104241846531</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>141</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>965.5847520975916</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>31.07385962666356</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>124</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>161</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>113.9332907096061</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>281.54417880735</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>16.77927825644923</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>99</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>146.5224611255821</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>448.3209170780729</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>21.17359008477478</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4106,6 +5168,60 @@
       <c r="BF20" t="n">
         <v>123</v>
       </c>
+      <c r="BG20" t="n">
+        <v>144.04752615442</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>143</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1042.645388841806</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>32.2900199572841</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>124</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>164</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>122.7012424468994</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>158.3390886510259</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>12.58328608317501</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>134.6793622970581</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>243.1977810249169</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>15.59479980714459</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4284,6 +5400,60 @@
       <c r="BF21" t="n">
         <v>126</v>
       </c>
+      <c r="BG21" t="n">
+        <v>138.2128079629797</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>137</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1004.159835642087</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>31.68848111920303</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>119</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>153</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>119.376017430845</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>190.4071254805602</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>13.79880884281539</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>109</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>139.7894189718328</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>329.8148055611053</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>18.16080410006961</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4461,6 +5631,60 @@
       </c>
       <c r="BF22" t="n">
         <v>157</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>164.4903306435105</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>165</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>636.2851579068138</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>25.22469341551674</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>148</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>182</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>117.4711913442789</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>196.7827020386028</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>14.02792579245424</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>105</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>141.6723067692769</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>308.1596903313408</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>17.55447778577707</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_merge_data.xlsx
+++ b/stage2_excels/PD/PD_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX22"/>
+  <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,92 +546,92 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -722,96 +722,6 @@
       <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -885,34 +795,34 @@
         <v>81</v>
       </c>
       <c r="W2" t="n">
-        <v>53.42855595060574</v>
+        <v>51.02854625651144</v>
       </c>
       <c r="X2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.692263943763</v>
+        <v>1614.383248020209</v>
       </c>
       <c r="Z2" t="n">
-        <v>41.97251796049128</v>
+        <v>40.17938834801009</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.487494468689</v>
+        <v>126.7295789718628</v>
       </c>
       <c r="AD2" t="n">
         <v>128</v>
       </c>
       <c r="AE2" t="n">
-        <v>21.75364495751175</v>
+        <v>18.18695630187145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.664080290637346</v>
+        <v>4.264616782534095</v>
       </c>
       <c r="AG2" t="n">
         <v>128</v>
@@ -921,16 +831,16 @@
         <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>129.7341168721517</v>
+        <v>130.3387759526571</v>
       </c>
       <c r="AJ2" t="n">
         <v>128</v>
       </c>
       <c r="AK2" t="n">
-        <v>32.99670041891741</v>
+        <v>52.08011642569901</v>
       </c>
       <c r="AL2" t="n">
-        <v>5.744275447688543</v>
+        <v>7.216655487530149</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
@@ -991,60 +901,6 @@
       </c>
       <c r="BF2" t="n">
         <v>29</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>51.02854625651144</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>39</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1614.383248020209</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>40.17938834801009</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>31</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>126.7295789718628</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>18.18695630187145</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>4.264616782534095</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>130.3387759526571</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>52.08011642569901</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>7.216655487530149</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -1117,58 +973,58 @@
         <v>102</v>
       </c>
       <c r="W3" t="n">
-        <v>64.43306367720945</v>
+        <v>60.21131947057391</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="n">
-        <v>1399.700672137088</v>
+        <v>1283.713154333453</v>
       </c>
       <c r="Z3" t="n">
-        <v>37.41257371709528</v>
+        <v>35.8289429698038</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.6767687267323</v>
+        <v>121.9487761903479</v>
       </c>
       <c r="AD3" t="n">
         <v>128</v>
       </c>
       <c r="AE3" t="n">
-        <v>70.41734196805777</v>
+        <v>72.92286701188964</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.391504154086904</v>
+        <v>8.539488685623375</v>
       </c>
       <c r="AG3" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AH3" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>136.2123845199276</v>
+        <v>138.9517624065284</v>
       </c>
       <c r="AJ3" t="n">
         <v>128</v>
       </c>
       <c r="AK3" t="n">
-        <v>126.5622843103048</v>
+        <v>177.5055480445853</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.24999041378724</v>
+        <v>13.32312080725028</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
       </c>
       <c r="AN3" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AO3" t="n">
         <v>60.47119917664505</v>
@@ -1223,60 +1079,6 @@
       </c>
       <c r="BF3" t="n">
         <v>43</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>60.21131947057391</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1283.713154333453</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>35.8289429698038</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>121.9487761903479</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>72.92286701188964</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>8.539488685623375</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>116</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>138.9517624065284</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>177.5055480445853</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>13.32312080725028</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -1349,34 +1151,34 @@
         <v>89</v>
       </c>
       <c r="W4" t="n">
-        <v>57.1519835043178</v>
+        <v>54.23931422607637</v>
       </c>
       <c r="X4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="n">
-        <v>1645.78032263637</v>
+        <v>1476.896198701306</v>
       </c>
       <c r="Z4" t="n">
-        <v>40.56821813484503</v>
+        <v>38.43040721487746</v>
       </c>
       <c r="AA4" t="n">
         <v>33</v>
       </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.1931502024333</v>
+        <v>127.0047152837118</v>
       </c>
       <c r="AD4" t="n">
         <v>128</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.14724233096489</v>
+        <v>15.65922770760736</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.259958019859455</v>
+        <v>3.957174207386801</v>
       </c>
       <c r="AG4" t="n">
         <v>128</v>
@@ -1385,16 +1187,16 @@
         <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>129.3411553700765</v>
+        <v>129.8872728347778</v>
       </c>
       <c r="AJ4" t="n">
         <v>128</v>
       </c>
       <c r="AK4" t="n">
-        <v>27.41975599849388</v>
+        <v>43.95832536464248</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.236387686038332</v>
+        <v>6.630107492691388</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
@@ -1455,60 +1257,6 @@
       </c>
       <c r="BF4" t="n">
         <v>42</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>54.23931422607637</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1476.896198701306</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>38.43040721487746</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>33</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>59</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>127.0047152837118</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>15.65922770760736</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>3.957174207386801</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>129.8872728347778</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>43.95832536464248</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>6.630107492691388</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -1581,58 +1329,58 @@
         <v>123</v>
       </c>
       <c r="W5" t="n">
-        <v>71.62863984343805</v>
+        <v>63.21710892787601</v>
       </c>
       <c r="X5" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.573776844042</v>
+        <v>1186.066728516082</v>
       </c>
       <c r="Z5" t="n">
-        <v>35.23597276710326</v>
+        <v>34.43931951296486</v>
       </c>
       <c r="AA5" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.2047338485718</v>
+        <v>121.8383954366048</v>
       </c>
       <c r="AD5" t="n">
         <v>128</v>
       </c>
       <c r="AE5" t="n">
-        <v>123.372919981119</v>
+        <v>130.1741873606792</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.10733631349654</v>
+        <v>11.40939031502907</v>
       </c>
       <c r="AG5" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AH5" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>136.1006736755371</v>
+        <v>138.164667447408</v>
       </c>
       <c r="AJ5" t="n">
         <v>128</v>
       </c>
       <c r="AK5" t="n">
-        <v>218.59601321295</v>
+        <v>326.8593086963999</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.78499283777135</v>
+        <v>18.07925077807153</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
       </c>
       <c r="AN5" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AO5" t="n">
         <v>65.04753548030898</v>
@@ -1687,60 +1435,6 @@
       </c>
       <c r="BF5" t="n">
         <v>15</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>63.21710892787601</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>57</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1186.066728516082</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>34.43931951296486</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>68</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>121.8383954366048</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>130.1741873606792</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>11.40939031502907</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>122</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>138.164667447408</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>326.8593086963999</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>18.07925077807153</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -1813,34 +1507,34 @@
         <v>118</v>
       </c>
       <c r="W6" t="n">
-        <v>71.90593307940884</v>
+        <v>65.26228724510544</v>
       </c>
       <c r="X6" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="n">
-        <v>1370.212807635446</v>
+        <v>1291.895184130998</v>
       </c>
       <c r="Z6" t="n">
-        <v>37.01638566412779</v>
+        <v>35.94294345391037</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.013653755188</v>
+        <v>126.0012976328532</v>
       </c>
       <c r="AD6" t="n">
         <v>128</v>
       </c>
       <c r="AE6" t="n">
-        <v>40.41062309187558</v>
+        <v>43.13220173615247</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.356935039142336</v>
+        <v>6.56751107621087</v>
       </c>
       <c r="AG6" t="n">
         <v>128</v>
@@ -1849,16 +1543,16 @@
         <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>130.6580858230591</v>
+        <v>131.3423665364583</v>
       </c>
       <c r="AJ6" t="n">
         <v>128</v>
       </c>
       <c r="AK6" t="n">
-        <v>74.33636815090819</v>
+        <v>108.8130766484482</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.621854101694611</v>
+        <v>10.43135066271134</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
@@ -1919,60 +1613,6 @@
       </c>
       <c r="BF6" t="n">
         <v>34</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>65.26228724510544</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>58</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1291.895184130998</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>35.94294345391037</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>45</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>72</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>126.0012976328532</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>43.13220173615247</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>6.56751107621087</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>131.3423665364583</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>108.8130766484482</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>10.43135066271134</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -2045,34 +1685,34 @@
         <v>146</v>
       </c>
       <c r="W7" t="n">
-        <v>91.0741296171073</v>
+        <v>81.60848817211372</v>
       </c>
       <c r="X7" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="n">
-        <v>1368.773495523122</v>
+        <v>1363.594742408876</v>
       </c>
       <c r="Z7" t="n">
-        <v>36.99693900207316</v>
+        <v>36.92688373541527</v>
       </c>
       <c r="AA7" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.1714353561401</v>
+        <v>122.1528600056966</v>
       </c>
       <c r="AD7" t="n">
         <v>128</v>
       </c>
       <c r="AE7" t="n">
-        <v>105.7546672179606</v>
+        <v>138.0444998261455</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.2837088260005</v>
+        <v>11.74923401018745</v>
       </c>
       <c r="AG7" t="n">
         <v>128</v>
@@ -2081,16 +1721,16 @@
         <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>135.522144317627</v>
+        <v>137.1279433568319</v>
       </c>
       <c r="AJ7" t="n">
         <v>128</v>
       </c>
       <c r="AK7" t="n">
-        <v>222.4448043272763</v>
+        <v>316.2135171882184</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.91458361226609</v>
+        <v>17.78239346061768</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
@@ -2151,60 +1791,6 @@
       </c>
       <c r="BF7" t="n">
         <v>40</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>81.60848817211372</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>71</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1363.594742408876</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>36.92688373541527</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>59</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>93</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>122.1528600056966</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>138.0444998261455</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>11.74923401018745</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>137.1279433568319</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>316.2135171882184</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>17.78239346061768</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -2277,58 +1863,58 @@
         <v>124</v>
       </c>
       <c r="W8" t="n">
-        <v>76.83157272995751</v>
+        <v>68.25345021468003</v>
       </c>
       <c r="X8" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Y8" t="n">
-        <v>854.2578041350303</v>
+        <v>807.5120681069233</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.22768899750766</v>
+        <v>28.41675681894264</v>
       </c>
       <c r="AA8" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB8" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.1417105985644</v>
+        <v>119.640360635123</v>
       </c>
       <c r="AD8" t="n">
         <v>128</v>
       </c>
       <c r="AE8" t="n">
-        <v>115.4143028652763</v>
+        <v>160.5535997257944</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.74310489873744</v>
+        <v>12.67097469517615</v>
       </c>
       <c r="AG8" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>138.8404141215564</v>
+        <v>140.4784920998451</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>262.4767045225071</v>
+        <v>337.0554489888107</v>
       </c>
       <c r="AL8" t="n">
-        <v>16.20113281602577</v>
+        <v>18.35906993801186</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
       </c>
       <c r="AN8" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
         <v>69.0571003430337</v>
@@ -2383,60 +1969,6 @@
       </c>
       <c r="BF8" t="n">
         <v>30</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>68.25345021468003</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>62</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>807.5120681069233</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>28.41675681894264</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>52</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>77</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>119.640360635123</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>160.5535997257944</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>12.67097469517615</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>107</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>140.4784920998451</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>337.0554489888107</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>18.35906993801186</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -2509,58 +2041,58 @@
         <v>130</v>
       </c>
       <c r="W9" t="n">
-        <v>81.55072262718491</v>
+        <v>73.07390639056339</v>
       </c>
       <c r="X9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>1178.988853636595</v>
+        <v>1146.6291508048</v>
       </c>
       <c r="Z9" t="n">
-        <v>34.33640711601309</v>
+        <v>33.8619129820629</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AB9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="n">
-        <v>136.1508809957798</v>
+        <v>118.5313874246679</v>
       </c>
       <c r="AD9" t="n">
         <v>128</v>
       </c>
       <c r="AE9" t="n">
-        <v>121.2096962943096</v>
+        <v>166.7278265936989</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.00952752366375</v>
+        <v>12.91231298388088</v>
       </c>
       <c r="AG9" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="AH9" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="n">
-        <v>140.2702021446048</v>
+        <v>142.346434142897</v>
       </c>
       <c r="AJ9" t="n">
         <v>128</v>
       </c>
       <c r="AK9" t="n">
-        <v>271.7283980953347</v>
+        <v>352.4103937496778</v>
       </c>
       <c r="AL9" t="n">
-        <v>16.4841863037074</v>
+        <v>18.77259688348093</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
       </c>
       <c r="AN9" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AO9" t="n">
         <v>73.64371831412213</v>
@@ -2615,60 +2147,6 @@
       </c>
       <c r="BF9" t="n">
         <v>36</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>73.07390639056339</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>65</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1146.6291508048</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>33.8619129820629</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>52</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>85</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>118.5313874246679</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>166.7278265936989</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>12.91231298388088</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>106</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>142.346434142897</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>352.4103937496778</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>18.77259688348093</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -2741,58 +2219,58 @@
         <v>159</v>
       </c>
       <c r="W10" t="n">
-        <v>94.56727992305048</v>
+        <v>84.66241152422101</v>
       </c>
       <c r="X10" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="n">
-        <v>1381.725218462761</v>
+        <v>1322.70041725695</v>
       </c>
       <c r="Z10" t="n">
-        <v>37.17156464910727</v>
+        <v>36.3689485310883</v>
       </c>
       <c r="AA10" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB10" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AC10" t="n">
-        <v>140.0840128543994</v>
+        <v>114.0180567087372</v>
       </c>
       <c r="AD10" t="n">
         <v>128</v>
       </c>
       <c r="AE10" t="n">
-        <v>170.4548820134362</v>
+        <v>246.7167629583285</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.05583708589519</v>
+        <v>15.70722009008369</v>
       </c>
       <c r="AG10" t="n">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AH10" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>145.7069798808587</v>
+        <v>149.6535512151613</v>
       </c>
       <c r="AJ10" t="n">
         <v>128</v>
       </c>
       <c r="AK10" t="n">
-        <v>378.6106286631521</v>
+        <v>523.2349146780023</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.45791943305224</v>
+        <v>22.87432872628183</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
       </c>
       <c r="AN10" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AO10" t="n">
         <v>85.48941764400784</v>
@@ -2847,60 +2325,6 @@
       </c>
       <c r="BF10" t="n">
         <v>53</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>84.66241152422101</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>82</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1322.70041725695</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>36.3689485310883</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>59</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>105</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>114.0180567087372</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>246.7167629583285</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>15.70722009008369</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>99</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>149.6535512151613</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>523.2349146780023</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>22.87432872628183</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -2973,34 +2397,34 @@
         <v>139</v>
       </c>
       <c r="W11" t="n">
-        <v>92.6648217539276</v>
+        <v>83.11840290907979</v>
       </c>
       <c r="X11" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="n">
-        <v>1026.675322511782</v>
+        <v>1043.306075021197</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.04177464672927</v>
+        <v>32.30024883837889</v>
       </c>
       <c r="AA11" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AB11" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.7437918980916</v>
+        <v>125.7879486083984</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>37.7569476006753</v>
+        <v>59.87909693620168</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.14466822543539</v>
+        <v>7.738158497743612</v>
       </c>
       <c r="AG11" t="n">
         <v>128</v>
@@ -3009,16 +2433,16 @@
         <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>130.8142824172974</v>
+        <v>131.2087167104085</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>95.60150961271432</v>
+        <v>121.1546248449686</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.777602447057989</v>
+        <v>11.00702615809414</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
@@ -3079,60 +2503,6 @@
       </c>
       <c r="BF11" t="n">
         <v>47</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>83.11840290907979</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>78</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1043.306075021197</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>32.30024883837889</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>64</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>93</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>125.7879486083984</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>59.87909693620168</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>7.738158497743612</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>131.2087167104085</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>121.1546248449686</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>11.00702615809414</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -3205,34 +2575,34 @@
         <v>152</v>
       </c>
       <c r="W12" t="n">
-        <v>103.8756330852791</v>
+        <v>95.20793541473456</v>
       </c>
       <c r="X12" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y12" t="n">
-        <v>1014.252167885205</v>
+        <v>1003.184422443058</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.8473259141989</v>
+        <v>31.67308672111163</v>
       </c>
       <c r="AA12" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="n">
-        <v>130.2460788091024</v>
+        <v>124.996148109436</v>
       </c>
       <c r="AD12" t="n">
         <v>128</v>
       </c>
       <c r="AE12" t="n">
-        <v>38.82719679899522</v>
+        <v>67.3523471599072</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.231147310006017</v>
+        <v>8.206847577474996</v>
       </c>
       <c r="AG12" t="n">
         <v>128</v>
@@ -3241,16 +2611,16 @@
         <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>131.791569073995</v>
+        <v>132.4037745793661</v>
       </c>
       <c r="AJ12" t="n">
         <v>128</v>
       </c>
       <c r="AK12" t="n">
-        <v>106.3632671737789</v>
+        <v>139.0231814897541</v>
       </c>
       <c r="AL12" t="n">
-        <v>10.31325686549981</v>
+        <v>11.79080919571486</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
@@ -3311,60 +2681,6 @@
       </c>
       <c r="BF12" t="n">
         <v>77</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>95.20793541473456</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>93</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1003.184422443058</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>31.67308672111163</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>73</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>113</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>124.996148109436</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>67.3523471599072</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>8.206847577474996</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>132.4037745793661</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>139.0231814897541</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>11.79080919571486</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -3437,34 +2753,34 @@
         <v>185</v>
       </c>
       <c r="W13" t="n">
-        <v>126.9403678516166</v>
+        <v>115.6294208667128</v>
       </c>
       <c r="X13" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="n">
-        <v>1066.626167482688</v>
+        <v>1187.698709428388</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.65924321662533</v>
+        <v>34.46300493904134</v>
       </c>
       <c r="AA13" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AB13" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="n">
-        <v>131.4158369700114</v>
+        <v>122.5339393615723</v>
       </c>
       <c r="AD13" t="n">
         <v>128</v>
       </c>
       <c r="AE13" t="n">
-        <v>70.63887707429164</v>
+        <v>176.3684388790134</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.404693752558249</v>
+        <v>13.28037796446372</v>
       </c>
       <c r="AG13" t="n">
         <v>128</v>
@@ -3473,16 +2789,16 @@
         <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>134.5169378916422</v>
+        <v>135.1483821868896</v>
       </c>
       <c r="AJ13" t="n">
         <v>128</v>
       </c>
       <c r="AK13" t="n">
-        <v>247.5612320948472</v>
+        <v>288.6540494431239</v>
       </c>
       <c r="AL13" t="n">
-        <v>15.73407868592398</v>
+        <v>16.9898219367692</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
@@ -3543,60 +2859,6 @@
       </c>
       <c r="BF13" t="n">
         <v>78</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>115.6294208667128</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>111</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1187.698709428388</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>34.46300493904134</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>92</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>133</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>122.5339393615723</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>176.3684388790134</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>13.28037796446372</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>135.1483821868896</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>288.6540494431239</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>16.9898219367692</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -3669,58 +2931,58 @@
         <v>153</v>
       </c>
       <c r="W14" t="n">
-        <v>103.1203730911228</v>
+        <v>93.64590091439908</v>
       </c>
       <c r="X14" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Y14" t="n">
-        <v>1022.179890677536</v>
+        <v>1023.565905953612</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.97154814327164</v>
+        <v>31.99321656154022</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AC14" t="n">
-        <v>134.7518816366833</v>
+        <v>118.300250814487</v>
       </c>
       <c r="AD14" t="n">
         <v>128</v>
       </c>
       <c r="AE14" t="n">
-        <v>96.57294512695836</v>
+        <v>182.5719701244901</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.827153460028921</v>
+        <v>13.51191955735713</v>
       </c>
       <c r="AG14" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>140.1659346403848</v>
+        <v>141.3945496691889</v>
       </c>
       <c r="AJ14" t="n">
         <v>128</v>
       </c>
       <c r="AK14" t="n">
-        <v>283.1648578316902</v>
+        <v>337.6246138997089</v>
       </c>
       <c r="AL14" t="n">
-        <v>16.82750301832361</v>
+        <v>18.37456431863648</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
       </c>
       <c r="AN14" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AO14" t="n">
         <v>92.68930214155004</v>
@@ -3775,60 +3037,6 @@
       </c>
       <c r="BF14" t="n">
         <v>72</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>93.64590091439908</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>91</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>1023.565905953612</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>31.99321656154022</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>71</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>113</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>118.300250814487</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>182.5719701244901</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>13.51191955735713</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>104</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>141.3945496691889</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>337.6246138997089</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>18.37456431863648</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -3901,58 +3109,58 @@
         <v>203</v>
       </c>
       <c r="W15" t="n">
-        <v>146.5194111734651</v>
+        <v>136.5870167398562</v>
       </c>
       <c r="X15" t="n">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="n">
-        <v>1069.209568403956</v>
+        <v>1197.620420979426</v>
       </c>
       <c r="Z15" t="n">
-        <v>32.69877013595399</v>
+        <v>34.6066528427617</v>
       </c>
       <c r="AA15" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AC15" t="n">
-        <v>134.8907509178925</v>
+        <v>115.5106943242674</v>
       </c>
       <c r="AD15" t="n">
         <v>128</v>
       </c>
       <c r="AE15" t="n">
-        <v>92.78373358873802</v>
+        <v>280.9928149361689</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.632431343577696</v>
+        <v>16.76284030038373</v>
       </c>
       <c r="AG15" t="n">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AH15" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>142.6672318233905</v>
+        <v>143.9788966581698</v>
       </c>
       <c r="AJ15" t="n">
         <v>128</v>
       </c>
       <c r="AK15" t="n">
-        <v>385.2147301333208</v>
+        <v>434.8087008335709</v>
       </c>
       <c r="AL15" t="n">
-        <v>19.62688793806397</v>
+        <v>20.85206706380859</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
       </c>
       <c r="AN15" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="n">
         <v>133.3506036638627</v>
@@ -4007,60 +3215,6 @@
       </c>
       <c r="BF15" t="n">
         <v>115</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>136.5870167398562</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>134</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>1197.620420979426</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>34.6066528427617</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>113</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>115.5106943242674</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>280.9928149361689</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>16.76284030038373</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>99</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>143.9788966581698</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>434.8087008335709</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>20.85206706380859</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -4133,58 +3287,58 @@
         <v>213</v>
       </c>
       <c r="W16" t="n">
-        <v>157.4356874148395</v>
+        <v>148.0959565386791</v>
       </c>
       <c r="X16" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Y16" t="n">
-        <v>1042.016137879974</v>
+        <v>1211.781181280123</v>
       </c>
       <c r="Z16" t="n">
-        <v>32.28027474914014</v>
+        <v>34.81064752744659</v>
       </c>
       <c r="AA16" t="n">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AB16" t="n">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="n">
-        <v>134.0908795678806</v>
+        <v>116.9730920940347</v>
       </c>
       <c r="AD16" t="n">
         <v>128</v>
       </c>
       <c r="AE16" t="n">
-        <v>84.54625758271351</v>
+        <v>258.0455616084456</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.194903891978072</v>
+        <v>16.06379661252114</v>
       </c>
       <c r="AG16" t="n">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="AH16" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>140.7852890699571</v>
+        <v>142.360382150104</v>
       </c>
       <c r="AJ16" t="n">
         <v>128</v>
       </c>
       <c r="AK16" t="n">
-        <v>348.5821704542807</v>
+        <v>411.3512929644501</v>
       </c>
       <c r="AL16" t="n">
-        <v>18.67035539175087</v>
+        <v>20.28179708419474</v>
       </c>
       <c r="AM16" t="n">
         <v>128</v>
       </c>
       <c r="AN16" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AO16" t="n">
         <v>144.3357950555703</v>
@@ -4239,60 +3393,6 @@
       </c>
       <c r="BF16" t="n">
         <v>142</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>148.0959565386791</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>150</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>1211.781181280123</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>34.81064752744659</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>125</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>174</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>116.9730920940347</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>258.0455616084456</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>16.06379661252114</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>103</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>142.360382150104</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>411.3512929644501</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>20.28179708419474</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -4365,58 +3465,58 @@
         <v>206</v>
       </c>
       <c r="W17" t="n">
-        <v>151.8340512177931</v>
+        <v>142.0877163442713</v>
       </c>
       <c r="X17" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Y17" t="n">
-        <v>1033.211665324653</v>
+        <v>1195.751370765808</v>
       </c>
       <c r="Z17" t="n">
-        <v>32.14361002321695</v>
+        <v>34.5796380947778</v>
       </c>
       <c r="AA17" t="n">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AB17" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AC17" t="n">
-        <v>135.7124181716447</v>
+        <v>114.2799731215093</v>
       </c>
       <c r="AD17" t="n">
         <v>128</v>
       </c>
       <c r="AE17" t="n">
-        <v>99.41033248536156</v>
+        <v>292.0745383874604</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.970473032176637</v>
+        <v>17.0901883660614</v>
       </c>
       <c r="AG17" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AH17" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>143.9767113153983</v>
+        <v>145.8338931588577</v>
       </c>
       <c r="AJ17" t="n">
         <v>128</v>
       </c>
       <c r="AK17" t="n">
-        <v>395.783393877133</v>
+        <v>457.846700082011</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.89430556408374</v>
+        <v>21.39735264190435</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
       </c>
       <c r="AN17" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AO17" t="n">
         <v>138.6750978933354</v>
@@ -4471,60 +3571,6 @@
       </c>
       <c r="BF17" t="n">
         <v>128</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>142.0877163442713</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>145</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>1195.751370765808</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>34.5796380947778</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>121</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>166</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>114.2799731215093</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>292.0745383874604</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>17.0901883660614</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>98</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>145.8338931588577</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>457.846700082011</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>21.39735264190435</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -4597,34 +3643,34 @@
         <v>203</v>
       </c>
       <c r="W18" t="n">
-        <v>148.330473957823</v>
+        <v>138.5684528969394</v>
       </c>
       <c r="X18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Y18" t="n">
-        <v>980.2922628833892</v>
+        <v>1135.227874020394</v>
       </c>
       <c r="Z18" t="n">
-        <v>31.30961933469312</v>
+        <v>33.69314283382293</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AB18" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AC18" t="n">
-        <v>130.3776604334513</v>
+        <v>124.133929570516</v>
       </c>
       <c r="AD18" t="n">
         <v>128</v>
       </c>
       <c r="AE18" t="n">
-        <v>45.65614699835226</v>
+        <v>117.9385791360107</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.756933253951253</v>
+        <v>10.85995299879381</v>
       </c>
       <c r="AG18" t="n">
         <v>128</v>
@@ -4633,16 +3679,16 @@
         <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>132.528603553772</v>
+        <v>133.27090771993</v>
       </c>
       <c r="AJ18" t="n">
         <v>128</v>
       </c>
       <c r="AK18" t="n">
-        <v>161.5985960263675</v>
+        <v>206.6474876083563</v>
       </c>
       <c r="AL18" t="n">
-        <v>12.71214364402666</v>
+        <v>14.3752386974393</v>
       </c>
       <c r="AM18" t="n">
         <v>128</v>
@@ -4703,60 +3749,6 @@
       </c>
       <c r="BF18" t="n">
         <v>122</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>138.5684528969394</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>140</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>1135.227874020394</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>33.69314283382293</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>118</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>124.133929570516</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>117.9385791360107</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>10.85995299879381</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>133.27090771993</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>206.6474876083563</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>14.3752386974393</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -4829,58 +3821,58 @@
         <v>202</v>
       </c>
       <c r="W19" t="n">
-        <v>152.080162728944</v>
+        <v>142.5104241846531</v>
       </c>
       <c r="X19" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.3368264731448</v>
+        <v>965.5847520975916</v>
       </c>
       <c r="Z19" t="n">
-        <v>28.71126654247675</v>
+        <v>31.07385962666356</v>
       </c>
       <c r="AA19" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB19" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AC19" t="n">
-        <v>135.9978830215487</v>
+        <v>113.9332907096061</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>94.03884783508074</v>
+        <v>281.54417880735</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.697362932007897</v>
+        <v>16.77927825644923</v>
       </c>
       <c r="AG19" t="n">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="AH19" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AI19" t="n">
-        <v>144.3966011524193</v>
+        <v>146.5224611255821</v>
       </c>
       <c r="AJ19" t="n">
         <v>128</v>
       </c>
       <c r="AK19" t="n">
-        <v>383.3053154665423</v>
+        <v>448.3209170780729</v>
       </c>
       <c r="AL19" t="n">
-        <v>19.57818468261402</v>
+        <v>21.17359008477478</v>
       </c>
       <c r="AM19" t="n">
         <v>128</v>
       </c>
       <c r="AN19" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AO19" t="n">
         <v>139.0989820930074</v>
@@ -4935,60 +3927,6 @@
       </c>
       <c r="BF19" t="n">
         <v>124</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>142.5104241846531</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>141</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>965.5847520975916</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>31.07385962666356</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>124</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>161</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>113.9332907096061</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>281.54417880735</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>16.77927825644923</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>99</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>146.5224611255821</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>448.3209170780729</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>21.17359008477478</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -5061,34 +3999,34 @@
         <v>203</v>
       </c>
       <c r="W20" t="n">
-        <v>153.8435702091783</v>
+        <v>144.04752615442</v>
       </c>
       <c r="X20" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y20" t="n">
-        <v>891.0515521552024</v>
+        <v>1042.645388841806</v>
       </c>
       <c r="Z20" t="n">
-        <v>29.85048663179886</v>
+        <v>32.2900199572841</v>
       </c>
       <c r="AA20" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB20" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AC20" t="n">
-        <v>130.7921918233236</v>
+        <v>122.7012424468994</v>
       </c>
       <c r="AD20" t="n">
         <v>128</v>
       </c>
       <c r="AE20" t="n">
-        <v>48.29728512205791</v>
+        <v>158.3390886510259</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.949624818798344</v>
+        <v>12.58328608317501</v>
       </c>
       <c r="AG20" t="n">
         <v>128</v>
@@ -5097,16 +4035,16 @@
         <v>128</v>
       </c>
       <c r="AI20" t="n">
-        <v>134.1635789871216</v>
+        <v>134.6793622970581</v>
       </c>
       <c r="AJ20" t="n">
         <v>128</v>
       </c>
       <c r="AK20" t="n">
-        <v>214.0222305751508</v>
+        <v>243.1977810249169</v>
       </c>
       <c r="AL20" t="n">
-        <v>14.62949864401206</v>
+        <v>15.59479980714459</v>
       </c>
       <c r="AM20" t="n">
         <v>128</v>
@@ -5167,60 +4105,6 @@
       </c>
       <c r="BF20" t="n">
         <v>123</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>144.04752615442</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>143</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>1042.645388841806</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>32.2900199572841</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>124</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>164</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>122.7012424468994</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>158.3390886510259</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>12.58328608317501</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>134.6793622970581</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>243.1977810249169</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>15.59479980714459</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -5293,58 +4177,58 @@
         <v>189</v>
       </c>
       <c r="W21" t="n">
-        <v>147.4007276894878</v>
+        <v>138.2128079629797</v>
       </c>
       <c r="X21" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y21" t="n">
-        <v>873.0257199576353</v>
+        <v>1004.159835642087</v>
       </c>
       <c r="Z21" t="n">
-        <v>29.54700864652182</v>
+        <v>31.68848111920303</v>
       </c>
       <c r="AA21" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AB21" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AC21" t="n">
-        <v>133.1990236200581</v>
+        <v>119.376017430845</v>
       </c>
       <c r="AD21" t="n">
         <v>128</v>
       </c>
       <c r="AE21" t="n">
-        <v>72.35441132406002</v>
+        <v>190.4071254805602</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.506139625238939</v>
+        <v>13.79880884281539</v>
       </c>
       <c r="AG21" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="AH21" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AI21" t="n">
-        <v>138.1431085006947</v>
+        <v>139.7894189718328</v>
       </c>
       <c r="AJ21" t="n">
         <v>128</v>
       </c>
       <c r="AK21" t="n">
-        <v>264.530159088013</v>
+        <v>329.8148055611053</v>
       </c>
       <c r="AL21" t="n">
-        <v>16.26438314502007</v>
+        <v>18.16080410006961</v>
       </c>
       <c r="AM21" t="n">
         <v>128</v>
       </c>
       <c r="AN21" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="n">
         <v>134.9425266603606</v>
@@ -5399,60 +4283,6 @@
       </c>
       <c r="BF21" t="n">
         <v>126</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>138.2128079629797</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>137</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1004.159835642087</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>31.68848111920303</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>119</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>153</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>119.376017430845</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>190.4071254805602</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>13.79880884281539</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>109</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>139.7894189718328</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>329.8148055611053</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>18.16080410006961</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="22">
@@ -5525,58 +4355,58 @@
         <v>217</v>
       </c>
       <c r="W22" t="n">
-        <v>172.4157338475958</v>
+        <v>164.4903306435105</v>
       </c>
       <c r="X22" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Y22" t="n">
-        <v>537.279159751297</v>
+        <v>636.2851579068138</v>
       </c>
       <c r="Z22" t="n">
-        <v>23.17928298613434</v>
+        <v>25.22469341551674</v>
       </c>
       <c r="AA22" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AB22" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AC22" t="n">
-        <v>133.2339666670513</v>
+        <v>117.4711913442789</v>
       </c>
       <c r="AD22" t="n">
         <v>128</v>
       </c>
       <c r="AE22" t="n">
-        <v>51.3848400235338</v>
+        <v>196.7827020386028</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.168321981017161</v>
+        <v>14.02792579245424</v>
       </c>
       <c r="AG22" t="n">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="AH22" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AI22" t="n">
-        <v>140.0135555722214</v>
+        <v>141.6723067692769</v>
       </c>
       <c r="AJ22" t="n">
         <v>128</v>
       </c>
       <c r="AK22" t="n">
-        <v>258.4179333213771</v>
+        <v>308.1596903313408</v>
       </c>
       <c r="AL22" t="n">
-        <v>16.07538283591956</v>
+        <v>17.55447778577707</v>
       </c>
       <c r="AM22" t="n">
         <v>128</v>
       </c>
       <c r="AN22" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AO22" t="n">
         <v>159.3761227047623</v>
@@ -5631,60 +4461,6 @@
       </c>
       <c r="BF22" t="n">
         <v>157</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>164.4903306435105</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>165</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>636.2851579068138</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>25.22469341551674</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>148</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>182</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>117.4711913442789</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>196.7827020386028</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>14.02792579245424</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>105</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>141.6723067692769</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>308.1596903313408</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>17.55447778577707</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_merge_data.xlsx
+++ b/stage2_excels/PD/PD_merge_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF22"/>
+  <dimension ref="A1:BF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791666.6666666666</v>
+        <v>79166.66666666667</v>
       </c>
       <c r="C2" t="n">
         <v>26.29103652480276</v>
       </c>
       <c r="D2" t="n">
-        <v>30111.65672071599</v>
+        <v>3011.1656720716</v>
       </c>
       <c r="E2" t="n">
         <v>19.40520308330863</v>
@@ -759,16 +759,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="n">
-        <v>179.1840304976761</v>
+        <v>179.1840798184994</v>
       </c>
       <c r="L2" t="n">
         <v>191</v>
       </c>
       <c r="M2" t="n">
-        <v>2978.158814726245</v>
+        <v>2978.1564030602</v>
       </c>
       <c r="N2" t="n">
-        <v>54.57250969788951</v>
+        <v>54.57248760190615</v>
       </c>
       <c r="O2" t="n">
         <v>148</v>
@@ -795,16 +795,16 @@
         <v>81</v>
       </c>
       <c r="W2" t="n">
-        <v>51.02854625651144</v>
+        <v>51.02851204206097</v>
       </c>
       <c r="X2" t="n">
         <v>39</v>
       </c>
       <c r="Y2" t="n">
-        <v>1614.383248020209</v>
+        <v>1614.381641893255</v>
       </c>
       <c r="Z2" t="n">
-        <v>40.17938834801009</v>
+        <v>40.17936836105385</v>
       </c>
       <c r="AA2" t="n">
         <v>31</v>
@@ -813,16 +813,16 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.7295789718628</v>
+        <v>126.7295783360799</v>
       </c>
       <c r="AD2" t="n">
         <v>128</v>
       </c>
       <c r="AE2" t="n">
-        <v>18.18695630187145</v>
+        <v>18.18696740210472</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.264616782534095</v>
+        <v>4.264618083967745</v>
       </c>
       <c r="AG2" t="n">
         <v>128</v>
@@ -831,16 +831,16 @@
         <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>130.3387759526571</v>
+        <v>130.3387794494629</v>
       </c>
       <c r="AJ2" t="n">
         <v>128</v>
       </c>
       <c r="AK2" t="n">
-        <v>52.08011642569901</v>
+        <v>52.08026759798425</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.216655487530149</v>
+        <v>7.216665961369159</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
@@ -849,16 +849,16 @@
         <v>128</v>
       </c>
       <c r="AO2" t="n">
-        <v>51.43044629899438</v>
+        <v>51.43042348936073</v>
       </c>
       <c r="AP2" t="n">
         <v>40</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1444.869484765277</v>
+        <v>1444.869179364122</v>
       </c>
       <c r="AR2" t="n">
-        <v>38.01143886733672</v>
+        <v>38.01143485010954</v>
       </c>
       <c r="AS2" t="n">
         <v>33</v>
@@ -867,16 +867,16 @@
         <v>51</v>
       </c>
       <c r="AU2" t="n">
-        <v>48.97013078473693</v>
+        <v>48.97009371908226</v>
       </c>
       <c r="AV2" t="n">
         <v>37</v>
       </c>
       <c r="AW2" t="n">
-        <v>1625.431005391914</v>
+        <v>1625.429232578485</v>
       </c>
       <c r="AX2" t="n">
-        <v>40.31663435099605</v>
+        <v>40.31661236486128</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -885,16 +885,16 @@
         <v>49</v>
       </c>
       <c r="BA2" t="n">
-        <v>32.75414566273579</v>
+        <v>32.75409148970142</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>2007.991345065711</v>
+        <v>2007.98883501948</v>
       </c>
       <c r="BD2" t="n">
-        <v>44.81061643255659</v>
+        <v>44.810588425276</v>
       </c>
       <c r="BE2" t="n">
         <v>12</v>
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>847500</v>
+        <v>84750</v>
       </c>
       <c r="C3" t="n">
         <v>27.09454470493431</v>
       </c>
       <c r="D3" t="n">
-        <v>31279.35934076272</v>
+        <v>3127.935934076271</v>
       </c>
       <c r="E3" t="n">
         <v>21.98670381624</v>
@@ -937,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>169.5563226744186</v>
+        <v>169.5564847942755</v>
       </c>
       <c r="L3" t="n">
         <v>176</v>
       </c>
       <c r="M3" t="n">
-        <v>2953.991187103394</v>
+        <v>2953.990738358892</v>
       </c>
       <c r="N3" t="n">
-        <v>54.35063189240208</v>
+        <v>54.35062776416564</v>
       </c>
       <c r="O3" t="n">
         <v>135</v>
@@ -973,16 +973,16 @@
         <v>102</v>
       </c>
       <c r="W3" t="n">
-        <v>60.21131947057391</v>
+        <v>60.21123093778358</v>
       </c>
       <c r="X3" t="n">
         <v>51</v>
       </c>
       <c r="Y3" t="n">
-        <v>1283.713154333453</v>
+        <v>1283.708510571731</v>
       </c>
       <c r="Z3" t="n">
-        <v>35.8289429698038</v>
+        <v>35.82887816513003</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
@@ -991,16 +991,16 @@
         <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.9487761903479</v>
+        <v>121.9487633574464</v>
       </c>
       <c r="AD3" t="n">
         <v>128</v>
       </c>
       <c r="AE3" t="n">
-        <v>72.92286701188964</v>
+        <v>72.92315058743813</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.539488685623375</v>
+        <v>8.539505289385218</v>
       </c>
       <c r="AG3" t="n">
         <v>116</v>
@@ -1009,16 +1009,16 @@
         <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>138.9517624065284</v>
+        <v>138.951802188523</v>
       </c>
       <c r="AJ3" t="n">
         <v>128</v>
       </c>
       <c r="AK3" t="n">
-        <v>177.5055480445853</v>
+        <v>177.507519164779</v>
       </c>
       <c r="AL3" t="n">
-        <v>13.32312080725028</v>
+        <v>13.32319478071153</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
@@ -1027,16 +1027,16 @@
         <v>150</v>
       </c>
       <c r="AO3" t="n">
-        <v>60.47119917664505</v>
+        <v>60.47112171045351</v>
       </c>
       <c r="AP3" t="n">
         <v>52</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1148.325546644134</v>
+        <v>1148.320916337658</v>
       </c>
       <c r="AR3" t="n">
-        <v>33.88695245436116</v>
+        <v>33.88688413439125</v>
       </c>
       <c r="AS3" t="n">
         <v>42</v>
@@ -1045,16 +1045,16 @@
         <v>66</v>
       </c>
       <c r="AU3" t="n">
-        <v>57.90085434142671</v>
+        <v>57.9007381421394</v>
       </c>
       <c r="AV3" t="n">
         <v>49</v>
       </c>
       <c r="AW3" t="n">
-        <v>1294.558888183582</v>
+        <v>1294.552778499435</v>
       </c>
       <c r="AX3" t="n">
-        <v>35.97997899087189</v>
+        <v>35.97989408682903</v>
       </c>
       <c r="AY3" t="n">
         <v>40</v>
@@ -1063,16 +1063,16 @@
         <v>61</v>
       </c>
       <c r="BA3" t="n">
-        <v>39.64673950635387</v>
+        <v>39.64657626724732</v>
       </c>
       <c r="BB3" t="n">
         <v>29</v>
       </c>
       <c r="BC3" t="n">
-        <v>1685.751969798473</v>
+        <v>1685.74982086805</v>
       </c>
       <c r="BD3" t="n">
-        <v>41.05790995409377</v>
+        <v>41.05788378457967</v>
       </c>
       <c r="BE3" t="n">
         <v>18</v>
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794166.6666666666</v>
+        <v>79416.66666666667</v>
       </c>
       <c r="C4" t="n">
         <v>20.68559434793201</v>
       </c>
       <c r="D4" t="n">
-        <v>38392.25759283351</v>
+        <v>3839.225759283351</v>
       </c>
       <c r="E4" t="n">
         <v>25.18472050065</v>
@@ -1115,16 +1115,16 @@
         <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4061651981487</v>
+        <v>173.4062756591762</v>
       </c>
       <c r="L4" t="n">
         <v>185</v>
       </c>
       <c r="M4" t="n">
-        <v>3125.925534233685</v>
+        <v>3125.924678627508</v>
       </c>
       <c r="N4" t="n">
-        <v>55.90997705449077</v>
+        <v>55.90996940284897</v>
       </c>
       <c r="O4" t="n">
         <v>134</v>
@@ -1151,16 +1151,16 @@
         <v>89</v>
       </c>
       <c r="W4" t="n">
-        <v>54.23931422607637</v>
+        <v>54.23924174944102</v>
       </c>
       <c r="X4" t="n">
         <v>44</v>
       </c>
       <c r="Y4" t="n">
-        <v>1476.896198701306</v>
+        <v>1476.893073404132</v>
       </c>
       <c r="Z4" t="n">
-        <v>38.43040721487746</v>
+        <v>38.43036655308055</v>
       </c>
       <c r="AA4" t="n">
         <v>33</v>
@@ -1169,16 +1169,16 @@
         <v>59</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.0047152837118</v>
+        <v>127.0047133763631</v>
       </c>
       <c r="AD4" t="n">
         <v>128</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.65922770760736</v>
+        <v>15.65929257544471</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.957174207386801</v>
+        <v>3.957182403610517</v>
       </c>
       <c r="AG4" t="n">
         <v>128</v>
@@ -1187,16 +1187,16 @@
         <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>129.8872728347778</v>
+        <v>129.8872791926066</v>
       </c>
       <c r="AJ4" t="n">
         <v>128</v>
       </c>
       <c r="AK4" t="n">
-        <v>43.95832536464248</v>
+        <v>43.95871017507776</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.630107492691388</v>
+        <v>6.630136512552193</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
@@ -1205,16 +1205,16 @@
         <v>128</v>
       </c>
       <c r="AO4" t="n">
-        <v>54.63758420879069</v>
+        <v>54.63754072280948</v>
       </c>
       <c r="AP4" t="n">
         <v>45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1327.235575008378</v>
+        <v>1327.233688084609</v>
       </c>
       <c r="AR4" t="n">
-        <v>36.43124448887765</v>
+        <v>36.43121859181503</v>
       </c>
       <c r="AS4" t="n">
         <v>35</v>
@@ -1223,16 +1223,16 @@
         <v>60</v>
       </c>
       <c r="AU4" t="n">
-        <v>52.08329739700165</v>
+        <v>52.08325391102044</v>
       </c>
       <c r="AV4" t="n">
         <v>43</v>
       </c>
       <c r="AW4" t="n">
-        <v>1484.296673416775</v>
+        <v>1484.2944193884</v>
       </c>
       <c r="AX4" t="n">
-        <v>38.52657100517479</v>
+        <v>38.52654175225697</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1241,16 +1241,16 @@
         <v>57</v>
       </c>
       <c r="BA4" t="n">
-        <v>36.36247739634936</v>
+        <v>36.36236868139633</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>1855.493166670723</v>
+        <v>1855.490897229345</v>
       </c>
       <c r="BD4" t="n">
-        <v>43.07543576878501</v>
+        <v>43.07540942613715</v>
       </c>
       <c r="BE4" t="n">
         <v>12</v>
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918333.3333333334</v>
+        <v>91833.33333333333</v>
       </c>
       <c r="C5" t="n">
         <v>60.82614643653605</v>
       </c>
       <c r="D5" t="n">
-        <v>15097.67406178676</v>
+        <v>1509.767406178676</v>
       </c>
       <c r="E5" t="n">
         <v>13.10915639424485</v>
@@ -1293,16 +1293,16 @@
         <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>232.044503701782</v>
+        <v>232.0445673105705</v>
       </c>
       <c r="L5" t="n">
         <v>247</v>
       </c>
       <c r="M5" t="n">
-        <v>1832.193238534095</v>
+        <v>1832.181866850956</v>
       </c>
       <c r="N5" t="n">
-        <v>42.80412641947146</v>
+        <v>42.80399358530644</v>
       </c>
       <c r="O5" t="n">
         <v>235</v>
@@ -1329,16 +1329,16 @@
         <v>123</v>
       </c>
       <c r="W5" t="n">
-        <v>63.21710892787601</v>
+        <v>63.21707688591583</v>
       </c>
       <c r="X5" t="n">
         <v>57</v>
       </c>
       <c r="Y5" t="n">
-        <v>1186.066728516082</v>
+        <v>1186.064018861632</v>
       </c>
       <c r="Z5" t="n">
-        <v>34.43931951296486</v>
+        <v>34.43928017339549</v>
       </c>
       <c r="AA5" t="n">
         <v>45</v>
@@ -1347,16 +1347,16 @@
         <v>68</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.8383954366048</v>
+        <v>121.8383925755819</v>
       </c>
       <c r="AD5" t="n">
         <v>128</v>
       </c>
       <c r="AE5" t="n">
-        <v>130.1741873606792</v>
+        <v>130.174282757068</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.40939031502907</v>
+        <v>11.40939449563683</v>
       </c>
       <c r="AG5" t="n">
         <v>122</v>
@@ -1365,16 +1365,16 @@
         <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>138.164667447408</v>
+        <v>138.1646757125854</v>
       </c>
       <c r="AJ5" t="n">
         <v>128</v>
       </c>
       <c r="AK5" t="n">
-        <v>326.8593086963999</v>
+        <v>326.8596747283922</v>
       </c>
       <c r="AL5" t="n">
-        <v>18.07925077807153</v>
+        <v>18.07926090105434</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
@@ -1383,16 +1383,16 @@
         <v>146</v>
       </c>
       <c r="AO5" t="n">
-        <v>65.04753548030898</v>
+        <v>65.04750836788114</v>
       </c>
       <c r="AP5" t="n">
         <v>60</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1032.38867693996</v>
+        <v>1032.386084118055</v>
       </c>
       <c r="AR5" t="n">
-        <v>32.13080573125984</v>
+        <v>32.13076538332156</v>
       </c>
       <c r="AS5" t="n">
         <v>47</v>
@@ -1401,16 +1401,16 @@
         <v>71</v>
       </c>
       <c r="AU5" t="n">
-        <v>59.60600219857142</v>
+        <v>59.60596769184507</v>
       </c>
       <c r="AV5" t="n">
         <v>53</v>
       </c>
       <c r="AW5" t="n">
-        <v>1216.967114260265</v>
+        <v>1216.963767027897</v>
       </c>
       <c r="AX5" t="n">
-        <v>34.88505574397531</v>
+        <v>34.8850077687808</v>
       </c>
       <c r="AY5" t="n">
         <v>42</v>
@@ -1419,16 +1419,16 @@
         <v>64</v>
       </c>
       <c r="BA5" t="n">
-        <v>21.88105901143159</v>
+        <v>21.88099862466048</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>1673.609161595457</v>
+        <v>1673.603008726744</v>
       </c>
       <c r="BD5" t="n">
-        <v>40.90976853509999</v>
+        <v>40.90969333454779</v>
       </c>
       <c r="BE5" t="n">
         <v>7</v>
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238333.3333333333</v>
+        <v>23833.33333333333</v>
       </c>
       <c r="C6" t="n">
         <v>24.14819812222409</v>
       </c>
       <c r="D6" t="n">
-        <v>9869.611476890699</v>
+        <v>986.9611476890699</v>
       </c>
       <c r="E6" t="n">
         <v>15.38486442478326</v>
@@ -1471,16 +1471,16 @@
         <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>204.9627641826</v>
+        <v>204.9630097142389</v>
       </c>
       <c r="L6" t="n">
         <v>221</v>
       </c>
       <c r="M6" t="n">
-        <v>2530.262204299687</v>
+        <v>2530.247459147791</v>
       </c>
       <c r="N6" t="n">
-        <v>50.3017117432368</v>
+        <v>50.30156517592461</v>
       </c>
       <c r="O6" t="n">
         <v>187</v>
@@ -1507,16 +1507,16 @@
         <v>118</v>
       </c>
       <c r="W6" t="n">
-        <v>65.26228724510544</v>
+        <v>65.26212582610827</v>
       </c>
       <c r="X6" t="n">
         <v>58</v>
       </c>
       <c r="Y6" t="n">
-        <v>1291.895184130998</v>
+        <v>1291.889252819375</v>
       </c>
       <c r="Z6" t="n">
-        <v>35.94294345391037</v>
+        <v>35.94286094371697</v>
       </c>
       <c r="AA6" t="n">
         <v>45</v>
@@ -1525,16 +1525,16 @@
         <v>72</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.0012976328532</v>
+        <v>126.0012944539388</v>
       </c>
       <c r="AD6" t="n">
         <v>128</v>
       </c>
       <c r="AE6" t="n">
-        <v>43.13220173615247</v>
+        <v>43.13232063579031</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.56751107621087</v>
+        <v>6.567520128312536</v>
       </c>
       <c r="AG6" t="n">
         <v>128</v>
@@ -1543,16 +1543,16 @@
         <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>131.3423665364583</v>
+        <v>131.3423827489217</v>
       </c>
       <c r="AJ6" t="n">
         <v>128</v>
       </c>
       <c r="AK6" t="n">
-        <v>108.8130766484482</v>
+        <v>108.8141524178031</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.43135066271134</v>
+        <v>10.43140222682469</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
@@ -1561,16 +1561,16 @@
         <v>128</v>
       </c>
       <c r="AO6" t="n">
-        <v>66.20759414297378</v>
+        <v>66.20746687030294</v>
       </c>
       <c r="AP6" t="n">
         <v>60</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1142.014577816959</v>
+        <v>1142.008158361939</v>
       </c>
       <c r="AR6" t="n">
-        <v>33.79370618646258</v>
+        <v>33.79361120629075</v>
       </c>
       <c r="AS6" t="n">
         <v>46</v>
@@ -1579,16 +1579,16 @@
         <v>73</v>
       </c>
       <c r="AU6" t="n">
-        <v>62.24958791592554</v>
+        <v>62.24942028850541</v>
       </c>
       <c r="AV6" t="n">
         <v>54</v>
       </c>
       <c r="AW6" t="n">
-        <v>1314.090330638244</v>
+        <v>1314.082703424377</v>
       </c>
       <c r="AX6" t="n">
-        <v>36.25038386883985</v>
+        <v>36.25027866685133</v>
       </c>
       <c r="AY6" t="n">
         <v>42</v>
@@ -1597,16 +1597,16 @@
         <v>68</v>
       </c>
       <c r="BA6" t="n">
-        <v>32.63583874242185</v>
+        <v>32.6355810928687</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>1840.847212308047</v>
+        <v>1840.83867115659</v>
       </c>
       <c r="BD6" t="n">
-        <v>42.90509541194433</v>
+        <v>42.90499587643134</v>
       </c>
       <c r="BE6" t="n">
         <v>10</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405833.3333333333</v>
+        <v>40583.33333333334</v>
       </c>
       <c r="C7" t="n">
         <v>52.43462453852064</v>
       </c>
       <c r="D7" t="n">
-        <v>7739.796687877329</v>
+        <v>773.9796687877329</v>
       </c>
       <c r="E7" t="n">
         <v>13.13539994254558</v>
@@ -1649,16 +1649,16 @@
         <v>14</v>
       </c>
       <c r="K7" t="n">
-        <v>209.5973603617164</v>
+        <v>209.5975528564481</v>
       </c>
       <c r="L7" t="n">
         <v>226</v>
       </c>
       <c r="M7" t="n">
-        <v>2149.5829589564</v>
+        <v>2149.572766977702</v>
       </c>
       <c r="N7" t="n">
-        <v>46.36359519015324</v>
+        <v>46.36348527642958</v>
       </c>
       <c r="O7" t="n">
         <v>191</v>
@@ -1685,16 +1685,16 @@
         <v>146</v>
       </c>
       <c r="W7" t="n">
-        <v>81.60848817211372</v>
+        <v>81.6083637959602</v>
       </c>
       <c r="X7" t="n">
         <v>71</v>
       </c>
       <c r="Y7" t="n">
-        <v>1363.594742408876</v>
+        <v>1363.595481326348</v>
       </c>
       <c r="Z7" t="n">
-        <v>36.92688373541527</v>
+        <v>36.92689374055645</v>
       </c>
       <c r="AA7" t="n">
         <v>59</v>
@@ -1703,16 +1703,16 @@
         <v>93</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.1528600056966</v>
+        <v>122.1528504689534</v>
       </c>
       <c r="AD7" t="n">
         <v>128</v>
       </c>
       <c r="AE7" t="n">
-        <v>138.0444998261455</v>
+        <v>138.0447602336928</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.74923401018745</v>
+        <v>11.74924509207688</v>
       </c>
       <c r="AG7" t="n">
         <v>128</v>
@@ -1721,16 +1721,16 @@
         <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>137.1279433568319</v>
+        <v>137.1279710133871</v>
       </c>
       <c r="AJ7" t="n">
         <v>128</v>
       </c>
       <c r="AK7" t="n">
-        <v>316.2135171882184</v>
+        <v>316.2151704574932</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.78239346061768</v>
+        <v>17.78243994668598</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
@@ -1739,16 +1739,16 @@
         <v>128</v>
       </c>
       <c r="AO7" t="n">
-        <v>82.41285591951862</v>
+        <v>82.41279015741446</v>
       </c>
       <c r="AP7" t="n">
         <v>74</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1169.025180812703</v>
+        <v>1169.025066414833</v>
       </c>
       <c r="AR7" t="n">
-        <v>34.19101023387147</v>
+        <v>34.1910085609482</v>
       </c>
       <c r="AS7" t="n">
         <v>62</v>
@@ -1757,16 +1757,16 @@
         <v>92</v>
       </c>
       <c r="AU7" t="n">
-        <v>78.03735430477305</v>
+        <v>78.03723707667433</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>1412.055504601733</v>
+        <v>1412.05557624882</v>
       </c>
       <c r="AX7" t="n">
-        <v>37.5773270018203</v>
+        <v>37.57732795514897</v>
       </c>
       <c r="AY7" t="n">
         <v>55</v>
@@ -1775,16 +1775,16 @@
         <v>89</v>
       </c>
       <c r="BA7" t="n">
-        <v>37.2331809844587</v>
+        <v>37.23297797970238</v>
       </c>
       <c r="BB7" t="n">
         <v>21</v>
       </c>
       <c r="BC7" t="n">
-        <v>1929.129667595418</v>
+        <v>1929.12680293322</v>
       </c>
       <c r="BD7" t="n">
-        <v>43.92185865369792</v>
+        <v>43.92182604279129</v>
       </c>
       <c r="BE7" t="n">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170833.3333333333</v>
+        <v>17083.33333333333</v>
       </c>
       <c r="C8" t="n">
         <v>26.39770618991398</v>
       </c>
       <c r="D8" t="n">
-        <v>6471.521885435835</v>
+        <v>647.1521885435834</v>
       </c>
       <c r="E8" t="n">
         <v>13.92170424997048</v>
@@ -1827,16 +1827,16 @@
         <v>14</v>
       </c>
       <c r="K8" t="n">
-        <v>221.4550122431233</v>
+        <v>221.4551810151494</v>
       </c>
       <c r="L8" t="n">
         <v>238</v>
       </c>
       <c r="M8" t="n">
-        <v>1757.510190619558</v>
+        <v>1757.495725708686</v>
       </c>
       <c r="N8" t="n">
-        <v>41.92266917336678</v>
+        <v>41.92249665404825</v>
       </c>
       <c r="O8" t="n">
         <v>210</v>
@@ -1863,16 +1863,16 @@
         <v>124</v>
       </c>
       <c r="W8" t="n">
-        <v>68.25345021468003</v>
+        <v>68.25475078943184</v>
       </c>
       <c r="X8" t="n">
         <v>62</v>
       </c>
       <c r="Y8" t="n">
-        <v>807.5120681069233</v>
+        <v>807.5849038254202</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.41675681894264</v>
+        <v>28.41803835287405</v>
       </c>
       <c r="AA8" t="n">
         <v>52</v>
@@ -1881,16 +1881,16 @@
         <v>77</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.640360635123</v>
+        <v>119.6404042588098</v>
       </c>
       <c r="AD8" t="n">
         <v>128</v>
       </c>
       <c r="AE8" t="n">
-        <v>160.5535997257944</v>
+        <v>160.5531531376077</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.67097469517615</v>
+        <v>12.67095707267638</v>
       </c>
       <c r="AG8" t="n">
         <v>107</v>
@@ -1899,16 +1899,16 @@
         <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>140.4784920998451</v>
+        <v>140.4781374203038</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>337.0554489888107</v>
+        <v>337.0469250905608</v>
       </c>
       <c r="AL8" t="n">
-        <v>18.35906993801186</v>
+        <v>18.35883779247916</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
@@ -1917,16 +1917,16 @@
         <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>69.0571003430337</v>
+        <v>69.0581311479134</v>
       </c>
       <c r="AP8" t="n">
         <v>64</v>
       </c>
       <c r="AQ8" t="n">
-        <v>695.4567227399029</v>
+        <v>695.5093737853855</v>
       </c>
       <c r="AR8" t="n">
-        <v>26.37151347078705</v>
+        <v>26.37251170793911</v>
       </c>
       <c r="AS8" t="n">
         <v>54</v>
@@ -1935,16 +1935,16 @@
         <v>77</v>
       </c>
       <c r="AU8" t="n">
-        <v>65.16243553919898</v>
+        <v>65.1639661282628</v>
       </c>
       <c r="AV8" t="n">
         <v>59</v>
       </c>
       <c r="AW8" t="n">
-        <v>834.293720786157</v>
+        <v>834.3760291913376</v>
       </c>
       <c r="AX8" t="n">
-        <v>28.88414306823308</v>
+        <v>28.88556783570885</v>
       </c>
       <c r="AY8" t="n">
         <v>49</v>
@@ -1953,16 +1953,16 @@
         <v>74</v>
       </c>
       <c r="BA8" t="n">
-        <v>25.39649639928213</v>
+        <v>25.39832231536382</v>
       </c>
       <c r="BB8" t="n">
         <v>15</v>
       </c>
       <c r="BC8" t="n">
-        <v>1001.005870752565</v>
+        <v>1001.202450444194</v>
       </c>
       <c r="BD8" t="n">
-        <v>31.63867681734755</v>
+        <v>31.64178330063264</v>
       </c>
       <c r="BE8" t="n">
         <v>8</v>
@@ -1978,13 +1978,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="C9" t="n">
         <v>17.83189970202957</v>
       </c>
       <c r="D9" t="n">
-        <v>8972.683935732843</v>
+        <v>897.2683935732844</v>
       </c>
       <c r="E9" t="n">
         <v>14.33403438734162</v>
@@ -2005,16 +2005,16 @@
         <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2821578526867</v>
+        <v>213.2823618406514</v>
       </c>
       <c r="L9" t="n">
         <v>229</v>
       </c>
       <c r="M9" t="n">
-        <v>2219.773439116089</v>
+        <v>2219.762988570654</v>
       </c>
       <c r="N9" t="n">
-        <v>47.11447165273202</v>
+        <v>47.11436074670497</v>
       </c>
       <c r="O9" t="n">
         <v>194</v>
@@ -2041,16 +2041,16 @@
         <v>130</v>
       </c>
       <c r="W9" t="n">
-        <v>73.07390639056339</v>
+        <v>73.07376346255707</v>
       </c>
       <c r="X9" t="n">
         <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>1146.6291508048</v>
+        <v>1146.628667459171</v>
       </c>
       <c r="Z9" t="n">
-        <v>33.8619129820629</v>
+        <v>33.86190584505206</v>
       </c>
       <c r="AA9" t="n">
         <v>52</v>
@@ -2059,16 +2059,16 @@
         <v>85</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.5313874246679</v>
+        <v>118.5313759298488</v>
       </c>
       <c r="AD9" t="n">
         <v>128</v>
       </c>
       <c r="AE9" t="n">
-        <v>166.7278265936989</v>
+        <v>166.7280966223432</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.91231298388088</v>
+        <v>12.91232344012274</v>
       </c>
       <c r="AG9" t="n">
         <v>106</v>
@@ -2077,16 +2077,16 @@
         <v>128</v>
       </c>
       <c r="AI9" t="n">
-        <v>142.346434142897</v>
+        <v>142.3464899748756</v>
       </c>
       <c r="AJ9" t="n">
         <v>128</v>
       </c>
       <c r="AK9" t="n">
-        <v>352.4103937496778</v>
+        <v>352.4130185761556</v>
       </c>
       <c r="AL9" t="n">
-        <v>18.77259688348093</v>
+        <v>18.77266679446891</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
@@ -2095,16 +2095,16 @@
         <v>162</v>
       </c>
       <c r="AO9" t="n">
-        <v>73.64371831412213</v>
+        <v>73.64361742376472</v>
       </c>
       <c r="AP9" t="n">
         <v>67</v>
       </c>
       <c r="AQ9" t="n">
-        <v>988.2977823386252</v>
+        <v>988.2959532639484</v>
       </c>
       <c r="AR9" t="n">
-        <v>31.43720379325466</v>
+        <v>31.43717470231618</v>
       </c>
       <c r="AS9" t="n">
         <v>54</v>
@@ -2113,16 +2113,16 @@
         <v>84</v>
       </c>
       <c r="AU9" t="n">
-        <v>69.99040280475194</v>
+        <v>69.99028089557007</v>
       </c>
       <c r="AV9" t="n">
         <v>62</v>
       </c>
       <c r="AW9" t="n">
-        <v>1183.841598311782</v>
+        <v>1183.840406291483</v>
       </c>
       <c r="AX9" t="n">
-        <v>34.40699926340252</v>
+        <v>34.40698194104625</v>
       </c>
       <c r="AY9" t="n">
         <v>49</v>
@@ -2131,16 +2131,16 @@
         <v>83</v>
       </c>
       <c r="BA9" t="n">
-        <v>32.103458857753</v>
+        <v>32.10324866950841</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
       </c>
       <c r="BC9" t="n">
-        <v>1576.784181964385</v>
+        <v>1576.781215516215</v>
       </c>
       <c r="BD9" t="n">
-        <v>39.70874188342392</v>
+        <v>39.70870453082315</v>
       </c>
       <c r="BE9" t="n">
         <v>8</v>
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687500</v>
+        <v>68750</v>
       </c>
       <c r="C10" t="n">
         <v>62.58001161897266</v>
       </c>
       <c r="D10" t="n">
-        <v>10985.93595964702</v>
+        <v>1098.593595964702</v>
       </c>
       <c r="E10" t="n">
         <v>14.31663500288203</v>
@@ -2183,16 +2183,16 @@
         <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>210.5991606993285</v>
+        <v>210.5992938448056</v>
       </c>
       <c r="L10" t="n">
         <v>225</v>
       </c>
       <c r="M10" t="n">
-        <v>2157.77498832923</v>
+        <v>2157.767876145692</v>
       </c>
       <c r="N10" t="n">
-        <v>46.45185667257262</v>
+        <v>46.45178011815793</v>
       </c>
       <c r="O10" t="n">
         <v>188</v>
@@ -2219,16 +2219,16 @@
         <v>159</v>
       </c>
       <c r="W10" t="n">
-        <v>84.66241152422101</v>
+        <v>84.66232887296022</v>
       </c>
       <c r="X10" t="n">
         <v>82</v>
       </c>
       <c r="Y10" t="n">
-        <v>1322.70041725695</v>
+        <v>1322.701510178633</v>
       </c>
       <c r="Z10" t="n">
-        <v>36.3689485310883</v>
+        <v>36.36896355656334</v>
       </c>
       <c r="AA10" t="n">
         <v>59</v>
@@ -2237,16 +2237,16 @@
         <v>105</v>
       </c>
       <c r="AC10" t="n">
-        <v>114.0180567087372</v>
+        <v>114.0180428101293</v>
       </c>
       <c r="AD10" t="n">
         <v>128</v>
       </c>
       <c r="AE10" t="n">
-        <v>246.7167629583285</v>
+        <v>246.7169054675766</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.70722009008369</v>
+        <v>15.70722462650791</v>
       </c>
       <c r="AG10" t="n">
         <v>99</v>
@@ -2255,16 +2255,16 @@
         <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>149.6535512151613</v>
+        <v>149.6535917024103</v>
       </c>
       <c r="AJ10" t="n">
         <v>128</v>
       </c>
       <c r="AK10" t="n">
-        <v>523.2349146780023</v>
+        <v>523.2363186920554</v>
       </c>
       <c r="AL10" t="n">
-        <v>22.87432872628183</v>
+        <v>22.87435941599361</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
@@ -2273,16 +2273,16 @@
         <v>173</v>
       </c>
       <c r="AO10" t="n">
-        <v>85.48941764400784</v>
+        <v>85.4893805108327</v>
       </c>
       <c r="AP10" t="n">
         <v>83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1139.397444471141</v>
+        <v>1139.397558676908</v>
       </c>
       <c r="AR10" t="n">
-        <v>33.75496177558406</v>
+        <v>33.7549634672726</v>
       </c>
       <c r="AS10" t="n">
         <v>62</v>
@@ -2291,16 +2291,16 @@
         <v>105</v>
       </c>
       <c r="AU10" t="n">
-        <v>80.97866758980538</v>
+        <v>80.97858613638896</v>
       </c>
       <c r="AV10" t="n">
         <v>78</v>
       </c>
       <c r="AW10" t="n">
-        <v>1363.664279072709</v>
+        <v>1363.665669881713</v>
       </c>
       <c r="AX10" t="n">
-        <v>36.92782526866034</v>
+        <v>36.92784410010572</v>
       </c>
       <c r="AY10" t="n">
         <v>54</v>
@@ -2309,16 +2309,16 @@
         <v>102</v>
       </c>
       <c r="BA10" t="n">
-        <v>37.79833691289156</v>
+        <v>37.79820155647896</v>
       </c>
       <c r="BB10" t="n">
         <v>24</v>
       </c>
       <c r="BC10" t="n">
-        <v>1647.865520422612</v>
+        <v>1647.864379366672</v>
       </c>
       <c r="BD10" t="n">
-        <v>40.59390989326616</v>
+        <v>40.59389583874245</v>
       </c>
       <c r="BE10" t="n">
         <v>11</v>
@@ -2334,13 +2334,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200833.3333333333</v>
+        <v>20083.33333333333</v>
       </c>
       <c r="C11" t="n">
         <v>19.62489458593354</v>
       </c>
       <c r="D11" t="n">
-        <v>10233.60061649879</v>
+        <v>1023.360061649879</v>
       </c>
       <c r="E11" t="n">
         <v>14.26564906383145</v>
@@ -2361,16 +2361,16 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>206.264704061177</v>
+        <v>206.2649440011146</v>
       </c>
       <c r="L11" t="n">
         <v>223</v>
       </c>
       <c r="M11" t="n">
-        <v>2482.989858694415</v>
+        <v>2482.979313573402</v>
       </c>
       <c r="N11" t="n">
-        <v>49.82960825347131</v>
+        <v>49.82950244155968</v>
       </c>
       <c r="O11" t="n">
         <v>183</v>
@@ -2388,7 +2388,7 @@
         <v>789.1306720541836</v>
       </c>
       <c r="T11" t="n">
-        <v>28.09146973823519</v>
+        <v>28.0914697382352</v>
       </c>
       <c r="U11" t="n">
         <v>113</v>
@@ -2397,16 +2397,16 @@
         <v>139</v>
       </c>
       <c r="W11" t="n">
-        <v>83.11840290907979</v>
+        <v>83.11824248188509</v>
       </c>
       <c r="X11" t="n">
         <v>78</v>
       </c>
       <c r="Y11" t="n">
-        <v>1043.306075021197</v>
+        <v>1043.308305490547</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.30024883837889</v>
+        <v>32.30028336548376</v>
       </c>
       <c r="AA11" t="n">
         <v>64</v>
@@ -2415,16 +2415,16 @@
         <v>93</v>
       </c>
       <c r="AC11" t="n">
-        <v>125.7879486083984</v>
+        <v>125.787945429484</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>59.87909693620168</v>
+        <v>59.87921575096923</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.738158497743612</v>
+        <v>7.738166174938946</v>
       </c>
       <c r="AG11" t="n">
         <v>128</v>
@@ -2433,16 +2433,16 @@
         <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>131.2087167104085</v>
+        <v>131.2087297439575</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>121.1546248449686</v>
+        <v>121.1555034602507</v>
       </c>
       <c r="AL11" t="n">
-        <v>11.00702615809414</v>
+        <v>11.00706606958688</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
@@ -2451,16 +2451,16 @@
         <v>128</v>
       </c>
       <c r="AO11" t="n">
-        <v>83.1348199586709</v>
+        <v>83.13468626934198</v>
       </c>
       <c r="AP11" t="n">
         <v>78</v>
       </c>
       <c r="AQ11" t="n">
-        <v>889.0729271268584</v>
+        <v>889.0744413789738</v>
       </c>
       <c r="AR11" t="n">
-        <v>29.81732595533775</v>
+        <v>29.81735134747843</v>
       </c>
       <c r="AS11" t="n">
         <v>66</v>
@@ -2469,16 +2469,16 @@
         <v>92</v>
       </c>
       <c r="AU11" t="n">
-        <v>80.01762025355136</v>
+        <v>80.01746364605177</v>
       </c>
       <c r="AV11" t="n">
         <v>75</v>
       </c>
       <c r="AW11" t="n">
-        <v>1086.662761860231</v>
+        <v>1086.664719218835</v>
       </c>
       <c r="AX11" t="n">
-        <v>32.96456827959728</v>
+        <v>32.964597968409</v>
       </c>
       <c r="AY11" t="n">
         <v>60</v>
@@ -2487,16 +2487,16 @@
         <v>90</v>
       </c>
       <c r="BA11" t="n">
-        <v>38.49949771009278</v>
+        <v>38.49923415113005</v>
       </c>
       <c r="BB11" t="n">
         <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>1696.396087806956</v>
+        <v>1696.394437364438</v>
       </c>
       <c r="BD11" t="n">
-        <v>41.18732921429788</v>
+        <v>41.18730917848893</v>
       </c>
       <c r="BE11" t="n">
         <v>13</v>
@@ -2512,13 +2512,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214166.6666666667</v>
+        <v>21416.66666666667</v>
       </c>
       <c r="C12" t="n">
         <v>30.14913513614812</v>
       </c>
       <c r="D12" t="n">
-        <v>7103.575797432602</v>
+        <v>710.3575797432602</v>
       </c>
       <c r="E12" t="n">
         <v>13.24868994031036</v>
@@ -2539,16 +2539,16 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>173.3827753595571</v>
+        <v>173.3832141495998</v>
       </c>
       <c r="L12" t="n">
         <v>174</v>
       </c>
       <c r="M12" t="n">
-        <v>2051.938999442386</v>
+        <v>2051.954687946176</v>
       </c>
       <c r="N12" t="n">
-        <v>45.2983332965175</v>
+        <v>45.29850646485131</v>
       </c>
       <c r="O12" t="n">
         <v>142</v>
@@ -2575,16 +2575,16 @@
         <v>152</v>
       </c>
       <c r="W12" t="n">
-        <v>95.20793541473456</v>
+        <v>95.20764699885876</v>
       </c>
       <c r="X12" t="n">
         <v>93</v>
       </c>
       <c r="Y12" t="n">
-        <v>1003.184422443058</v>
+        <v>1003.194711449589</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.67308672111163</v>
+        <v>31.6732491457632</v>
       </c>
       <c r="AA12" t="n">
         <v>73</v>
@@ -2593,16 +2593,16 @@
         <v>113</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.996148109436</v>
+        <v>124.9961366653442</v>
       </c>
       <c r="AD12" t="n">
         <v>128</v>
       </c>
       <c r="AE12" t="n">
-        <v>67.3523471599072</v>
+        <v>67.352848068521</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.206847577474996</v>
+        <v>8.206878095141965</v>
       </c>
       <c r="AG12" t="n">
         <v>128</v>
@@ -2611,16 +2611,16 @@
         <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>132.4037745793661</v>
+        <v>132.4038114547729</v>
       </c>
       <c r="AJ12" t="n">
         <v>128</v>
       </c>
       <c r="AK12" t="n">
-        <v>139.0231814897541</v>
+        <v>139.0254799465872</v>
       </c>
       <c r="AL12" t="n">
-        <v>11.79080919571486</v>
+        <v>11.79090666346686</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
@@ -2629,16 +2629,16 @@
         <v>128</v>
       </c>
       <c r="AO12" t="n">
-        <v>94.25091683926036</v>
+        <v>94.25060604629074</v>
       </c>
       <c r="AP12" t="n">
         <v>92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>872.7436255725815</v>
+        <v>872.753614931927</v>
       </c>
       <c r="AR12" t="n">
-        <v>29.54223460695859</v>
+        <v>29.542403675597</v>
       </c>
       <c r="AS12" t="n">
         <v>74</v>
@@ -2647,16 +2647,16 @@
         <v>111</v>
       </c>
       <c r="AU12" t="n">
-        <v>92.40515966056437</v>
+        <v>92.40487124468856</v>
       </c>
       <c r="AV12" t="n">
         <v>90</v>
       </c>
       <c r="AW12" t="n">
-        <v>1030.670983653962</v>
+        <v>1030.6812670812</v>
       </c>
       <c r="AX12" t="n">
-        <v>32.10406490857445</v>
+        <v>32.10422506588813</v>
       </c>
       <c r="AY12" t="n">
         <v>70</v>
@@ -2665,16 +2665,16 @@
         <v>111</v>
       </c>
       <c r="BA12" t="n">
-        <v>57.79668421196578</v>
+        <v>57.79621180665196</v>
       </c>
       <c r="BB12" t="n">
         <v>50</v>
       </c>
       <c r="BC12" t="n">
-        <v>1449.410650149218</v>
+        <v>1449.429344098312</v>
       </c>
       <c r="BD12" t="n">
-        <v>38.07112620016931</v>
+        <v>38.07137171285415</v>
       </c>
       <c r="BE12" t="n">
         <v>31</v>
@@ -2690,13 +2690,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191666.6666666667</v>
+        <v>19166.66666666667</v>
       </c>
       <c r="C13" t="n">
         <v>37.15739959895805</v>
       </c>
       <c r="D13" t="n">
-        <v>5158.236817843444</v>
+        <v>515.8236817843446</v>
       </c>
       <c r="E13" t="n">
         <v>15.24772632233797</v>
@@ -2717,16 +2717,16 @@
         <v>16</v>
       </c>
       <c r="K13" t="n">
-        <v>194.4720235883153</v>
+        <v>194.4720828041345</v>
       </c>
       <c r="L13" t="n">
         <v>203</v>
       </c>
       <c r="M13" t="n">
-        <v>2428.044783893264</v>
+        <v>2428.040258213843</v>
       </c>
       <c r="N13" t="n">
-        <v>49.27519440746291</v>
+        <v>49.27514848494972</v>
       </c>
       <c r="O13" t="n">
         <v>165</v>
@@ -2753,16 +2753,16 @@
         <v>185</v>
       </c>
       <c r="W13" t="n">
-        <v>115.6294208667128</v>
+        <v>115.6293906058032</v>
       </c>
       <c r="X13" t="n">
         <v>111</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.698709428388</v>
+        <v>1187.69826536401</v>
       </c>
       <c r="Z13" t="n">
-        <v>34.46300493904134</v>
+        <v>34.46299849641655</v>
       </c>
       <c r="AA13" t="n">
         <v>92</v>
@@ -2771,16 +2771,16 @@
         <v>133</v>
       </c>
       <c r="AC13" t="n">
-        <v>122.5339393615723</v>
+        <v>122.5339352289836</v>
       </c>
       <c r="AD13" t="n">
         <v>128</v>
       </c>
       <c r="AE13" t="n">
-        <v>176.3684388790134</v>
+        <v>176.3686496036437</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.28037796446372</v>
+        <v>13.28038589814481</v>
       </c>
       <c r="AG13" t="n">
         <v>128</v>
@@ -2789,16 +2789,16 @@
         <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>135.1483821868896</v>
+        <v>135.1483869552612</v>
       </c>
       <c r="AJ13" t="n">
         <v>128</v>
       </c>
       <c r="AK13" t="n">
-        <v>288.6540494431239</v>
+        <v>288.6543458923008</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.9898219367692</v>
+        <v>16.98983066108373</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
@@ -2807,16 +2807,16 @@
         <v>128</v>
       </c>
       <c r="AO13" t="n">
-        <v>113.9781717972358</v>
+        <v>113.97815364069</v>
       </c>
       <c r="AP13" t="n">
         <v>110</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1006.08376183221</v>
+        <v>1006.082754359639</v>
       </c>
       <c r="AR13" t="n">
-        <v>31.71882346229459</v>
+        <v>31.71880758098637</v>
       </c>
       <c r="AS13" t="n">
         <v>92</v>
@@ -2825,16 +2825,16 @@
         <v>130</v>
       </c>
       <c r="AU13" t="n">
-        <v>112.4529493291156</v>
+        <v>112.4529291551759</v>
       </c>
       <c r="AV13" t="n">
         <v>108</v>
       </c>
       <c r="AW13" t="n">
-        <v>1242.4055424081</v>
+        <v>1242.405778561786</v>
       </c>
       <c r="AX13" t="n">
-        <v>35.24777358086748</v>
+        <v>35.24777693077658</v>
       </c>
       <c r="AY13" t="n">
         <v>89</v>
@@ -2843,16 +2843,16 @@
         <v>130</v>
       </c>
       <c r="BA13" t="n">
-        <v>58.08113353332432</v>
+        <v>58.08107502889917</v>
       </c>
       <c r="BB13" t="n">
         <v>47</v>
       </c>
       <c r="BC13" t="n">
-        <v>2229.777679255925</v>
+        <v>2229.774289437004</v>
       </c>
       <c r="BD13" t="n">
-        <v>47.22052180202931</v>
+        <v>47.22048590852283</v>
       </c>
       <c r="BE13" t="n">
         <v>22</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161666.6666666667</v>
+        <v>16166.66666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>25.76585896066415</v>
+        <v>25.76585896066416</v>
       </c>
       <c r="D14" t="n">
-        <v>6274.452829749537</v>
+        <v>627.4452829749536</v>
       </c>
       <c r="E14" t="n">
         <v>13.83012076960037</v>
@@ -2895,16 +2895,16 @@
         <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>189.325588890191</v>
+        <v>189.3259316770186</v>
       </c>
       <c r="L14" t="n">
         <v>197</v>
       </c>
       <c r="M14" t="n">
-        <v>2210.760246415778</v>
+        <v>2210.761619825169</v>
       </c>
       <c r="N14" t="n">
-        <v>47.01872229671685</v>
+        <v>47.01873690163497</v>
       </c>
       <c r="O14" t="n">
         <v>154</v>
@@ -2922,7 +2922,7 @@
         <v>799.7057621950603</v>
       </c>
       <c r="T14" t="n">
-        <v>28.27906933042635</v>
+        <v>28.27906933042636</v>
       </c>
       <c r="U14" t="n">
         <v>118</v>
@@ -2931,16 +2931,16 @@
         <v>153</v>
       </c>
       <c r="W14" t="n">
-        <v>93.64590091439908</v>
+        <v>93.64640131733984</v>
       </c>
       <c r="X14" t="n">
         <v>91</v>
       </c>
       <c r="Y14" t="n">
-        <v>1023.565905953612</v>
+        <v>1023.688812259027</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.99321656154022</v>
+        <v>31.99513732208423</v>
       </c>
       <c r="AA14" t="n">
         <v>71</v>
@@ -2949,16 +2949,16 @@
         <v>113</v>
       </c>
       <c r="AC14" t="n">
-        <v>118.300250814487</v>
+        <v>118.3003279069399</v>
       </c>
       <c r="AD14" t="n">
         <v>128</v>
       </c>
       <c r="AE14" t="n">
-        <v>182.5719701244901</v>
+        <v>182.5718150501204</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.51191955735713</v>
+        <v>13.51191381892737</v>
       </c>
       <c r="AG14" t="n">
         <v>104</v>
@@ -2967,16 +2967,16 @@
         <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>141.3945496691889</v>
+        <v>141.3943944282222</v>
       </c>
       <c r="AJ14" t="n">
         <v>128</v>
       </c>
       <c r="AK14" t="n">
-        <v>337.6246138997089</v>
+        <v>337.6212186369684</v>
       </c>
       <c r="AL14" t="n">
-        <v>18.37456431863648</v>
+        <v>18.3744719281118</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
@@ -2985,16 +2985,16 @@
         <v>162</v>
       </c>
       <c r="AO14" t="n">
-        <v>92.68930214155004</v>
+        <v>92.68966580647788</v>
       </c>
       <c r="AP14" t="n">
         <v>90</v>
       </c>
       <c r="AQ14" t="n">
-        <v>870.6458146033427</v>
+        <v>870.7430051579649</v>
       </c>
       <c r="AR14" t="n">
-        <v>29.50670795943429</v>
+        <v>29.50835483651986</v>
       </c>
       <c r="AS14" t="n">
         <v>72</v>
@@ -3003,16 +3003,16 @@
         <v>110</v>
       </c>
       <c r="AU14" t="n">
-        <v>90.86550507239842</v>
+        <v>90.86617130654626</v>
       </c>
       <c r="AV14" t="n">
         <v>89</v>
       </c>
       <c r="AW14" t="n">
-        <v>1065.569389985517</v>
+        <v>1065.720926094853</v>
       </c>
       <c r="AX14" t="n">
-        <v>32.64306036488486</v>
+        <v>32.64538138994325</v>
       </c>
       <c r="AY14" t="n">
         <v>67</v>
@@ -3021,16 +3021,16 @@
         <v>111</v>
       </c>
       <c r="BA14" t="n">
-        <v>49.8932657983318</v>
+        <v>49.8941560500752</v>
       </c>
       <c r="BB14" t="n">
         <v>39</v>
       </c>
       <c r="BC14" t="n">
-        <v>1469.051891326282</v>
+        <v>1469.313930959691</v>
       </c>
       <c r="BD14" t="n">
-        <v>38.32821273326323</v>
+        <v>38.33163094573059</v>
       </c>
       <c r="BE14" t="n">
         <v>21</v>
@@ -3046,13 +3046,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121666.6666666667</v>
+        <v>12166.66666666667</v>
       </c>
       <c r="C15" t="n">
         <v>25.05890069526433</v>
       </c>
       <c r="D15" t="n">
-        <v>4855.227615378173</v>
+        <v>485.5227615378172</v>
       </c>
       <c r="E15" t="n">
         <v>15.31951756252356</v>
@@ -3073,16 +3073,16 @@
         <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>161.5424894414138</v>
+        <v>161.5426645373392</v>
       </c>
       <c r="L15" t="n">
         <v>159</v>
       </c>
       <c r="M15" t="n">
-        <v>2370.803061559371</v>
+        <v>2370.795783187247</v>
       </c>
       <c r="N15" t="n">
-        <v>48.69089300433266</v>
+        <v>48.69081826368547</v>
       </c>
       <c r="O15" t="n">
         <v>127</v>
@@ -3109,16 +3109,16 @@
         <v>203</v>
       </c>
       <c r="W15" t="n">
-        <v>136.5870167398562</v>
+        <v>136.5869269979539</v>
       </c>
       <c r="X15" t="n">
         <v>134</v>
       </c>
       <c r="Y15" t="n">
-        <v>1197.620420979426</v>
+        <v>1197.617786211954</v>
       </c>
       <c r="Z15" t="n">
-        <v>34.6066528427617</v>
+        <v>34.60661477538584</v>
       </c>
       <c r="AA15" t="n">
         <v>113</v>
@@ -3127,16 +3127,16 @@
         <v>160</v>
       </c>
       <c r="AC15" t="n">
-        <v>115.5106943242674</v>
+        <v>115.5106791235004</v>
       </c>
       <c r="AD15" t="n">
         <v>128</v>
       </c>
       <c r="AE15" t="n">
-        <v>280.9928149361689</v>
+        <v>280.9935636065164</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.76284030038373</v>
+        <v>16.76286263161863</v>
       </c>
       <c r="AG15" t="n">
         <v>99</v>
@@ -3145,16 +3145,16 @@
         <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>143.9788966581698</v>
+        <v>143.978931736863</v>
       </c>
       <c r="AJ15" t="n">
         <v>128</v>
       </c>
       <c r="AK15" t="n">
-        <v>434.8087008335709</v>
+        <v>434.8101966652261</v>
       </c>
       <c r="AL15" t="n">
-        <v>20.85206706380859</v>
+        <v>20.85210293148453</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
@@ -3163,16 +3163,16 @@
         <v>166</v>
       </c>
       <c r="AO15" t="n">
-        <v>133.3506036638627</v>
+        <v>133.3505019563735</v>
       </c>
       <c r="AP15" t="n">
         <v>131</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1023.730187525219</v>
+        <v>1023.726214464515</v>
       </c>
       <c r="AR15" t="n">
-        <v>31.99578390233969</v>
+        <v>31.99572181502576</v>
       </c>
       <c r="AS15" t="n">
         <v>111</v>
@@ -3181,16 +3181,16 @@
         <v>155</v>
       </c>
       <c r="AU15" t="n">
-        <v>133.8343244827875</v>
+        <v>133.8342616634559</v>
       </c>
       <c r="AV15" t="n">
         <v>131</v>
       </c>
       <c r="AW15" t="n">
-        <v>1245.2518463713</v>
+        <v>1245.250296948368</v>
       </c>
       <c r="AX15" t="n">
-        <v>35.28812613856537</v>
+        <v>35.28810418467345</v>
       </c>
       <c r="AY15" t="n">
         <v>110</v>
@@ -3199,16 +3199,16 @@
         <v>158</v>
       </c>
       <c r="BA15" t="n">
-        <v>86.38271331650174</v>
+        <v>86.3825368240939</v>
       </c>
       <c r="BB15" t="n">
         <v>82</v>
       </c>
       <c r="BC15" t="n">
-        <v>2246.838370118679</v>
+        <v>2246.831418560634</v>
       </c>
       <c r="BD15" t="n">
-        <v>47.40082668180671</v>
+        <v>47.40075335435751</v>
       </c>
       <c r="BE15" t="n">
         <v>52</v>
@@ -3224,13 +3224,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234166.6666666667</v>
+        <v>23416.66666666667</v>
       </c>
       <c r="C16" t="n">
         <v>34.05400948258091</v>
       </c>
       <c r="D16" t="n">
-        <v>6876.331751374126</v>
+        <v>687.6331751374126</v>
       </c>
       <c r="E16" t="n">
         <v>14.93073421773909</v>
@@ -3251,16 +3251,16 @@
         <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>148.5672619735334</v>
+        <v>148.5678307663595</v>
       </c>
       <c r="L16" t="n">
         <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>2851.091546268352</v>
+        <v>2851.085905923742</v>
       </c>
       <c r="N16" t="n">
-        <v>53.39561354894568</v>
+        <v>53.39556073236559</v>
       </c>
       <c r="O16" t="n">
         <v>104</v>
@@ -3287,16 +3287,16 @@
         <v>213</v>
       </c>
       <c r="W16" t="n">
-        <v>148.0959565386791</v>
+        <v>148.0957232070334</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.781181280123</v>
+        <v>1211.77393989425</v>
       </c>
       <c r="Z16" t="n">
-        <v>34.81064752744659</v>
+        <v>34.81054351621431</v>
       </c>
       <c r="AA16" t="n">
         <v>125</v>
@@ -3305,16 +3305,16 @@
         <v>174</v>
       </c>
       <c r="AC16" t="n">
-        <v>116.9730920940347</v>
+        <v>116.9730170294</v>
       </c>
       <c r="AD16" t="n">
         <v>128</v>
       </c>
       <c r="AE16" t="n">
-        <v>258.0455616084456</v>
+        <v>258.049088761589</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.06379661252114</v>
+        <v>16.06390639793413</v>
       </c>
       <c r="AG16" t="n">
         <v>103</v>
@@ -3323,16 +3323,16 @@
         <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>142.360382150104</v>
+        <v>142.3604619556629</v>
       </c>
       <c r="AJ16" t="n">
         <v>128</v>
       </c>
       <c r="AK16" t="n">
-        <v>411.3512929644501</v>
+        <v>411.3552344067227</v>
       </c>
       <c r="AL16" t="n">
-        <v>20.28179708419474</v>
+        <v>20.2818942509501</v>
       </c>
       <c r="AM16" t="n">
         <v>128</v>
@@ -3341,16 +3341,16 @@
         <v>162</v>
       </c>
       <c r="AO16" t="n">
-        <v>144.3357950555703</v>
+        <v>144.3354780767309</v>
       </c>
       <c r="AP16" t="n">
         <v>146</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1041.429916057538</v>
+        <v>1041.42202386409</v>
       </c>
       <c r="AR16" t="n">
-        <v>32.27119328530537</v>
+        <v>32.27107100584191</v>
       </c>
       <c r="AS16" t="n">
         <v>122</v>
@@ -3359,16 +3359,16 @@
         <v>169</v>
       </c>
       <c r="AU16" t="n">
-        <v>145.329087871377</v>
+        <v>145.3289293819573</v>
       </c>
       <c r="AV16" t="n">
         <v>147</v>
       </c>
       <c r="AW16" t="n">
-        <v>1257.210057989829</v>
+        <v>1257.205434010913</v>
       </c>
       <c r="AX16" t="n">
-        <v>35.45715806420233</v>
+        <v>35.45709285898821</v>
       </c>
       <c r="AY16" t="n">
         <v>122</v>
@@ -3377,16 +3377,16 @@
         <v>172</v>
       </c>
       <c r="BA16" t="n">
-        <v>101.2706867214482</v>
+        <v>101.2701210022695</v>
       </c>
       <c r="BB16" t="n">
         <v>102</v>
       </c>
       <c r="BC16" t="n">
-        <v>2699.612162420537</v>
+        <v>2699.605250493516</v>
       </c>
       <c r="BD16" t="n">
-        <v>51.95779212418996</v>
+        <v>51.95772560932124</v>
       </c>
       <c r="BE16" t="n">
         <v>60</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>193333.3333333333</v>
+        <v>19333.33333333333</v>
       </c>
       <c r="C17" t="n">
         <v>38.28713854687881</v>
       </c>
       <c r="D17" t="n">
-        <v>5049.563395724019</v>
+        <v>504.9563395724019</v>
       </c>
       <c r="E17" t="n">
         <v>15.16788145280456</v>
@@ -3429,16 +3429,16 @@
         <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>156.1575659229209</v>
+        <v>156.1580092019987</v>
       </c>
       <c r="L17" t="n">
         <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>2985.050849030002</v>
+        <v>2985.023122935253</v>
       </c>
       <c r="N17" t="n">
-        <v>54.63561886745681</v>
+        <v>54.6353651304286</v>
       </c>
       <c r="O17" t="n">
         <v>116</v>
@@ -3465,16 +3465,16 @@
         <v>206</v>
       </c>
       <c r="W17" t="n">
-        <v>142.0877163442713</v>
+        <v>142.0875146840003</v>
       </c>
       <c r="X17" t="n">
         <v>145</v>
       </c>
       <c r="Y17" t="n">
-        <v>1195.751370765808</v>
+        <v>1195.74076118165</v>
       </c>
       <c r="Z17" t="n">
-        <v>34.5796380947778</v>
+        <v>34.57948468646764</v>
       </c>
       <c r="AA17" t="n">
         <v>121</v>
@@ -3483,16 +3483,16 @@
         <v>166</v>
       </c>
       <c r="AC17" t="n">
-        <v>114.2799731215093</v>
+        <v>114.2799130482543</v>
       </c>
       <c r="AD17" t="n">
         <v>128</v>
       </c>
       <c r="AE17" t="n">
-        <v>292.0745383874604</v>
+        <v>292.0767844338096</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.0901883660614</v>
+        <v>17.0902540775089</v>
       </c>
       <c r="AG17" t="n">
         <v>98</v>
@@ -3501,16 +3501,16 @@
         <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>145.8338931588577</v>
+        <v>145.8339806941722</v>
       </c>
       <c r="AJ17" t="n">
         <v>128</v>
       </c>
       <c r="AK17" t="n">
-        <v>457.846700082011</v>
+        <v>457.849822069223</v>
       </c>
       <c r="AL17" t="n">
-        <v>21.39735264190435</v>
+        <v>21.39742559443128</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
@@ -3519,16 +3519,16 @@
         <v>167</v>
       </c>
       <c r="AO17" t="n">
-        <v>138.6750978933354</v>
+        <v>138.6748570757303</v>
       </c>
       <c r="AP17" t="n">
         <v>141</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1026.768616317068</v>
+        <v>1026.75750942628</v>
       </c>
       <c r="AR17" t="n">
-        <v>32.04323042886075</v>
+        <v>32.0430571173582</v>
       </c>
       <c r="AS17" t="n">
         <v>118</v>
@@ -3537,16 +3537,16 @@
         <v>160</v>
       </c>
       <c r="AU17" t="n">
-        <v>139.2821971180202</v>
+        <v>139.2821011825515</v>
       </c>
       <c r="AV17" t="n">
         <v>142</v>
       </c>
       <c r="AW17" t="n">
-        <v>1242.168228754002</v>
+        <v>1242.163448917321</v>
       </c>
       <c r="AX17" t="n">
-        <v>35.24440705635438</v>
+        <v>35.24433924642823</v>
       </c>
       <c r="AY17" t="n">
         <v>119</v>
@@ -3555,16 +3555,16 @@
         <v>164</v>
       </c>
       <c r="BA17" t="n">
-        <v>93.57428342078472</v>
+        <v>93.57384681650872</v>
       </c>
       <c r="BB17" t="n">
         <v>97</v>
       </c>
       <c r="BC17" t="n">
-        <v>2686.997998302005</v>
+        <v>2686.971510388</v>
       </c>
       <c r="BD17" t="n">
-        <v>51.83626142288818</v>
+        <v>51.83600592626712</v>
       </c>
       <c r="BE17" t="n">
         <v>53</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194166.6666666667</v>
+        <v>19416.66666666667</v>
       </c>
       <c r="C18" t="n">
         <v>29.8336987687637</v>
       </c>
       <c r="D18" t="n">
-        <v>6508.300166587518</v>
+        <v>650.8300166587519</v>
       </c>
       <c r="E18" t="n">
         <v>15.00456850836533</v>
@@ -3607,16 +3607,16 @@
         <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>157.4549564801214</v>
+        <v>157.4552263313722</v>
       </c>
       <c r="L18" t="n">
         <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>2782.638150532398</v>
+        <v>2782.610517562232</v>
       </c>
       <c r="N18" t="n">
-        <v>52.75071706178409</v>
+        <v>52.75045514080644</v>
       </c>
       <c r="O18" t="n">
         <v>119</v>
@@ -3643,16 +3643,16 @@
         <v>203</v>
       </c>
       <c r="W18" t="n">
-        <v>138.5684528969394</v>
+        <v>138.5683373158555</v>
       </c>
       <c r="X18" t="n">
         <v>140</v>
       </c>
       <c r="Y18" t="n">
-        <v>1135.227874020394</v>
+        <v>1135.22058812141</v>
       </c>
       <c r="Z18" t="n">
-        <v>33.69314283382293</v>
+        <v>33.69303471225782</v>
       </c>
       <c r="AA18" t="n">
         <v>118</v>
@@ -3661,16 +3661,16 @@
         <v>160</v>
       </c>
       <c r="AC18" t="n">
-        <v>124.133929570516</v>
+        <v>124.1339206695557</v>
       </c>
       <c r="AD18" t="n">
         <v>128</v>
       </c>
       <c r="AE18" t="n">
-        <v>117.9385791360107</v>
+        <v>117.9390424627199</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.85995299879381</v>
+        <v>10.85997433066579</v>
       </c>
       <c r="AG18" t="n">
         <v>128</v>
@@ -3679,16 +3679,16 @@
         <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>133.27090771993</v>
+        <v>133.2709223429362</v>
       </c>
       <c r="AJ18" t="n">
         <v>128</v>
       </c>
       <c r="AK18" t="n">
-        <v>206.6474876083563</v>
+        <v>206.6482839505115</v>
       </c>
       <c r="AL18" t="n">
-        <v>14.3752386974393</v>
+        <v>14.37526639581025</v>
       </c>
       <c r="AM18" t="n">
         <v>128</v>
@@ -3697,16 +3697,16 @@
         <v>128</v>
       </c>
       <c r="AO18" t="n">
-        <v>135.7508197462744</v>
+        <v>135.7507117030873</v>
       </c>
       <c r="AP18" t="n">
         <v>138</v>
       </c>
       <c r="AQ18" t="n">
-        <v>976.71126977142</v>
+        <v>976.7058464201529</v>
       </c>
       <c r="AR18" t="n">
-        <v>31.25238022569513</v>
+        <v>31.25229345856321</v>
       </c>
       <c r="AS18" t="n">
         <v>116</v>
@@ -3715,16 +3715,16 @@
         <v>155</v>
       </c>
       <c r="AU18" t="n">
-        <v>135.4810409332921</v>
+        <v>135.4809931932792</v>
       </c>
       <c r="AV18" t="n">
         <v>137</v>
       </c>
       <c r="AW18" t="n">
-        <v>1178.979329062769</v>
+        <v>1178.977141260212</v>
       </c>
       <c r="AX18" t="n">
-        <v>34.3362684207642</v>
+        <v>34.33623656227065</v>
       </c>
       <c r="AY18" t="n">
         <v>115</v>
@@ -3733,16 +3733,16 @@
         <v>157</v>
       </c>
       <c r="BA18" t="n">
-        <v>91.08430886280776</v>
+        <v>91.08404252378834</v>
       </c>
       <c r="BB18" t="n">
         <v>95</v>
       </c>
       <c r="BC18" t="n">
-        <v>2519.923694123248</v>
+        <v>2519.899311150973</v>
       </c>
       <c r="BD18" t="n">
-        <v>50.19884156156642</v>
+        <v>50.1985986970849</v>
       </c>
       <c r="BE18" t="n">
         <v>51</v>
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="C19" t="n">
         <v>22.01907760349319</v>
       </c>
       <c r="D19" t="n">
-        <v>6358.122829713352</v>
+        <v>635.8122829713352</v>
       </c>
       <c r="E19" t="n">
         <v>15.34201727743044</v>
@@ -3773,7 +3773,7 @@
         <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>221.4377876523159</v>
+        <v>221.437787652316</v>
       </c>
       <c r="H19" t="n">
         <v>14.88078585466224</v>
@@ -3785,16 +3785,16 @@
         <v>16</v>
       </c>
       <c r="K19" t="n">
-        <v>151.1321849976388</v>
+        <v>151.1325607288496</v>
       </c>
       <c r="L19" t="n">
         <v>145</v>
       </c>
       <c r="M19" t="n">
-        <v>2521.786874577804</v>
+        <v>2521.748888299631</v>
       </c>
       <c r="N19" t="n">
-        <v>50.21739613498298</v>
+        <v>50.21701791524095</v>
       </c>
       <c r="O19" t="n">
         <v>114</v>
@@ -3821,16 +3821,16 @@
         <v>202</v>
       </c>
       <c r="W19" t="n">
-        <v>142.5104241846531</v>
+        <v>142.510230135494</v>
       </c>
       <c r="X19" t="n">
         <v>141</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.5847520975916</v>
+        <v>965.5727046314524</v>
       </c>
       <c r="Z19" t="n">
-        <v>31.07385962666356</v>
+        <v>31.07366577395484</v>
       </c>
       <c r="AA19" t="n">
         <v>124</v>
@@ -3839,16 +3839,16 @@
         <v>161</v>
       </c>
       <c r="AC19" t="n">
-        <v>113.9332907096061</v>
+        <v>113.9332465072224</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>281.54417880735</v>
+        <v>281.5452053493691</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.77927825644923</v>
+        <v>16.77930884599747</v>
       </c>
       <c r="AG19" t="n">
         <v>99</v>
@@ -3857,16 +3857,16 @@
         <v>128</v>
       </c>
       <c r="AI19" t="n">
-        <v>146.5224611255821</v>
+        <v>146.5225511090062</v>
       </c>
       <c r="AJ19" t="n">
         <v>128</v>
       </c>
       <c r="AK19" t="n">
-        <v>448.3209170780729</v>
+        <v>448.3231989224213</v>
       </c>
       <c r="AL19" t="n">
-        <v>21.17359008477478</v>
+        <v>21.1736439689162</v>
       </c>
       <c r="AM19" t="n">
         <v>128</v>
@@ -3875,16 +3875,16 @@
         <v>167</v>
       </c>
       <c r="AO19" t="n">
-        <v>139.0989820930074</v>
+        <v>139.0987914482195</v>
       </c>
       <c r="AP19" t="n">
         <v>138</v>
       </c>
       <c r="AQ19" t="n">
-        <v>830.5166715314421</v>
+        <v>830.5063190949959</v>
       </c>
       <c r="AR19" t="n">
-        <v>28.8186861520688</v>
+        <v>28.81850653824719</v>
       </c>
       <c r="AS19" t="n">
         <v>121</v>
@@ -3893,16 +3893,16 @@
         <v>156</v>
       </c>
       <c r="AU19" t="n">
-        <v>139.7018724041669</v>
+        <v>139.7017702730306</v>
       </c>
       <c r="AV19" t="n">
         <v>138</v>
       </c>
       <c r="AW19" t="n">
-        <v>1002.218582318301</v>
+        <v>1002.212005445149</v>
       </c>
       <c r="AX19" t="n">
-        <v>31.65783603341045</v>
+        <v>31.65773215890785</v>
       </c>
       <c r="AY19" t="n">
         <v>122</v>
@@ -3911,16 +3911,16 @@
         <v>159</v>
       </c>
       <c r="BA19" t="n">
-        <v>95.89620412609791</v>
+        <v>95.89583304963573</v>
       </c>
       <c r="BB19" t="n">
         <v>97</v>
       </c>
       <c r="BC19" t="n">
-        <v>2326.73857958603</v>
+        <v>2326.703699529015</v>
       </c>
       <c r="BD19" t="n">
-        <v>48.2362786664356</v>
+        <v>48.23591711089377</v>
       </c>
       <c r="BE19" t="n">
         <v>60</v>
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>260833.3333333333</v>
+        <v>26083.33333333333</v>
       </c>
       <c r="C20" t="n">
         <v>39.38734281591424</v>
       </c>
       <c r="D20" t="n">
-        <v>6622.262754621392</v>
+        <v>662.2262754621391</v>
       </c>
       <c r="E20" t="n">
         <v>15.12960207716224</v>
@@ -3963,16 +3963,16 @@
         <v>16</v>
       </c>
       <c r="K20" t="n">
-        <v>153.7790517967191</v>
+        <v>153.7793824222549</v>
       </c>
       <c r="L20" t="n">
         <v>149</v>
       </c>
       <c r="M20" t="n">
-        <v>2662.047987895014</v>
+        <v>2662.029046029965</v>
       </c>
       <c r="N20" t="n">
-        <v>51.59503840385249</v>
+        <v>51.59485484067152</v>
       </c>
       <c r="O20" t="n">
         <v>117</v>
@@ -3999,16 +3999,16 @@
         <v>203</v>
       </c>
       <c r="W20" t="n">
-        <v>144.04752615442</v>
+        <v>144.0473700938457</v>
       </c>
       <c r="X20" t="n">
         <v>143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1042.645388841806</v>
+        <v>1042.637433143011</v>
       </c>
       <c r="Z20" t="n">
-        <v>32.2900199572841</v>
+        <v>32.28989676575338</v>
       </c>
       <c r="AA20" t="n">
         <v>124</v>
@@ -4017,16 +4017,16 @@
         <v>164</v>
       </c>
       <c r="AC20" t="n">
-        <v>122.7012424468994</v>
+        <v>122.7012287775676</v>
       </c>
       <c r="AD20" t="n">
         <v>128</v>
       </c>
       <c r="AE20" t="n">
-        <v>158.3390886510259</v>
+        <v>158.3398392900735</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.58328608317501</v>
+        <v>12.58331590996878</v>
       </c>
       <c r="AG20" t="n">
         <v>128</v>
@@ -4035,16 +4035,16 @@
         <v>128</v>
       </c>
       <c r="AI20" t="n">
-        <v>134.6793622970581</v>
+        <v>134.6793867746989</v>
       </c>
       <c r="AJ20" t="n">
         <v>128</v>
       </c>
       <c r="AK20" t="n">
-        <v>243.1977810249169</v>
+        <v>243.1990800489637</v>
       </c>
       <c r="AL20" t="n">
-        <v>15.59479980714459</v>
+        <v>15.59484145635869</v>
       </c>
       <c r="AM20" t="n">
         <v>128</v>
@@ -4053,16 +4053,16 @@
         <v>128</v>
       </c>
       <c r="AO20" t="n">
-        <v>140.2535832078822</v>
+        <v>140.2533814710422</v>
       </c>
       <c r="AP20" t="n">
         <v>140</v>
       </c>
       <c r="AQ20" t="n">
-        <v>879.563966881311</v>
+        <v>879.5542982402671</v>
       </c>
       <c r="AR20" t="n">
-        <v>29.65744370105608</v>
+        <v>29.65728069530764</v>
       </c>
       <c r="AS20" t="n">
         <v>121</v>
@@ -4071,16 +4071,16 @@
         <v>158</v>
       </c>
       <c r="AU20" t="n">
-        <v>141.4083305895854</v>
+        <v>141.4081954639662</v>
       </c>
       <c r="AV20" t="n">
         <v>140</v>
       </c>
       <c r="AW20" t="n">
-        <v>1095.142918856767</v>
+        <v>1095.135787599071</v>
       </c>
       <c r="AX20" t="n">
-        <v>33.09294364145878</v>
+        <v>33.09283589538786</v>
       </c>
       <c r="AY20" t="n">
         <v>122</v>
@@ -4089,16 +4089,16 @@
         <v>162</v>
       </c>
       <c r="BA20" t="n">
-        <v>94.95417148012037</v>
+        <v>94.95384413354979</v>
       </c>
       <c r="BB20" t="n">
         <v>95</v>
       </c>
       <c r="BC20" t="n">
-        <v>2430.610544079007</v>
+        <v>2430.591744829403</v>
       </c>
       <c r="BD20" t="n">
-        <v>49.30122254142393</v>
+        <v>49.3010318840225</v>
       </c>
       <c r="BE20" t="n">
         <v>59</v>
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107500</v>
+        <v>10750</v>
       </c>
       <c r="C21" t="n">
         <v>19.09851764397219</v>
       </c>
       <c r="D21" t="n">
-        <v>5628.709096903591</v>
+        <v>562.8709096903591</v>
       </c>
       <c r="E21" t="n">
         <v>14.45951500700474</v>
@@ -4141,16 +4141,16 @@
         <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>142.4641987102938</v>
+        <v>142.4642584189157</v>
       </c>
       <c r="L21" t="n">
         <v>133</v>
       </c>
       <c r="M21" t="n">
-        <v>2569.719652110502</v>
+        <v>2569.716655028833</v>
       </c>
       <c r="N21" t="n">
-        <v>50.69240231149538</v>
+        <v>50.69237275003838</v>
       </c>
       <c r="O21" t="n">
         <v>104</v>
@@ -4177,16 +4177,16 @@
         <v>189</v>
       </c>
       <c r="W21" t="n">
-        <v>138.2128079629797</v>
+        <v>138.2127765632176</v>
       </c>
       <c r="X21" t="n">
         <v>137</v>
       </c>
       <c r="Y21" t="n">
-        <v>1004.159835642087</v>
+        <v>1004.157855120443</v>
       </c>
       <c r="Z21" t="n">
-        <v>31.68848111920303</v>
+        <v>31.68844986932058</v>
       </c>
       <c r="AA21" t="n">
         <v>119</v>
@@ -4195,16 +4195,16 @@
         <v>153</v>
       </c>
       <c r="AC21" t="n">
-        <v>119.376017430845</v>
+        <v>119.3760123784262</v>
       </c>
       <c r="AD21" t="n">
         <v>128</v>
       </c>
       <c r="AE21" t="n">
-        <v>190.4071254805602</v>
+        <v>190.4073313768833</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.79880884281539</v>
+        <v>13.79881630346906</v>
       </c>
       <c r="AG21" t="n">
         <v>109</v>
@@ -4213,16 +4213,16 @@
         <v>128</v>
       </c>
       <c r="AI21" t="n">
-        <v>139.7894189718328</v>
+        <v>139.7894290766704</v>
       </c>
       <c r="AJ21" t="n">
         <v>128</v>
       </c>
       <c r="AK21" t="n">
-        <v>329.8148055611053</v>
+        <v>329.8152645344734</v>
       </c>
       <c r="AL21" t="n">
-        <v>18.16080410006961</v>
+        <v>18.16081673643764</v>
       </c>
       <c r="AM21" t="n">
         <v>128</v>
@@ -4231,16 +4231,16 @@
         <v>157</v>
       </c>
       <c r="AO21" t="n">
-        <v>134.9425266603606</v>
+        <v>134.9424874106579</v>
       </c>
       <c r="AP21" t="n">
         <v>135</v>
       </c>
       <c r="AQ21" t="n">
-        <v>859.2288038570197</v>
+        <v>859.2263972620519</v>
       </c>
       <c r="AR21" t="n">
-        <v>29.31260486304518</v>
+        <v>29.31256381250285</v>
       </c>
       <c r="AS21" t="n">
         <v>117</v>
@@ -4249,16 +4249,16 @@
         <v>149</v>
       </c>
       <c r="AU21" t="n">
-        <v>135.4925641438266</v>
+        <v>135.4925523689158</v>
       </c>
       <c r="AV21" t="n">
         <v>134</v>
       </c>
       <c r="AW21" t="n">
-        <v>1045.745264180998</v>
+        <v>1045.744479011693</v>
       </c>
       <c r="AX21" t="n">
-        <v>32.33798485034276</v>
+        <v>32.33797271029358</v>
       </c>
       <c r="AY21" t="n">
         <v>117</v>
@@ -4267,16 +4267,16 @@
         <v>151</v>
       </c>
       <c r="BA21" t="n">
-        <v>98.00585213067011</v>
+        <v>98.00579325611608</v>
       </c>
       <c r="BB21" t="n">
         <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>2287.831627702728</v>
+        <v>2287.827872191797</v>
       </c>
       <c r="BD21" t="n">
-        <v>47.83128294017136</v>
+        <v>47.83124368226063</v>
       </c>
       <c r="BE21" t="n">
         <v>63</v>
@@ -4292,13 +4292,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92500</v>
+        <v>9250</v>
       </c>
       <c r="C22" t="n">
         <v>20.87344689942093</v>
       </c>
       <c r="D22" t="n">
-        <v>4431.467425850311</v>
+        <v>443.1467425850311</v>
       </c>
       <c r="E22" t="n">
         <v>14.40421273699847</v>
@@ -4319,16 +4319,16 @@
         <v>16</v>
       </c>
       <c r="K22" t="n">
-        <v>118.6902149062643</v>
+        <v>118.6908064246885</v>
       </c>
       <c r="L22" t="n">
         <v>117</v>
       </c>
       <c r="M22" t="n">
-        <v>1418.08975183615</v>
+        <v>1418.078138818111</v>
       </c>
       <c r="N22" t="n">
-        <v>37.65753247142131</v>
+        <v>37.65737827860711</v>
       </c>
       <c r="O22" t="n">
         <v>91</v>
@@ -4355,16 +4355,16 @@
         <v>217</v>
       </c>
       <c r="W22" t="n">
-        <v>164.4903306435105</v>
+        <v>164.4900217986978</v>
       </c>
       <c r="X22" t="n">
         <v>165</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.2851579068138</v>
+        <v>636.2803180583276</v>
       </c>
       <c r="Z22" t="n">
-        <v>25.22469341551674</v>
+        <v>25.22459748060071</v>
       </c>
       <c r="AA22" t="n">
         <v>148</v>
@@ -4373,16 +4373,16 @@
         <v>182</v>
       </c>
       <c r="AC22" t="n">
-        <v>117.4711913442789</v>
+        <v>117.4711365393269</v>
       </c>
       <c r="AD22" t="n">
         <v>128</v>
       </c>
       <c r="AE22" t="n">
-        <v>196.7827020386028</v>
+        <v>196.7845795530822</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.02792579245424</v>
+        <v>14.02799271289667</v>
       </c>
       <c r="AG22" t="n">
         <v>105</v>
@@ -4391,16 +4391,16 @@
         <v>128</v>
       </c>
       <c r="AI22" t="n">
-        <v>141.6723067692769</v>
+        <v>141.6724308015368</v>
       </c>
       <c r="AJ22" t="n">
         <v>128</v>
       </c>
       <c r="AK22" t="n">
-        <v>308.1596903313408</v>
+        <v>308.1643117626284</v>
       </c>
       <c r="AL22" t="n">
-        <v>17.55447778577707</v>
+        <v>17.55460941640766</v>
       </c>
       <c r="AM22" t="n">
         <v>128</v>
@@ -4409,16 +4409,16 @@
         <v>160</v>
       </c>
       <c r="AO22" t="n">
-        <v>159.3761227047623</v>
+        <v>159.3757671741059</v>
       </c>
       <c r="AP22" t="n">
         <v>159</v>
       </c>
       <c r="AQ22" t="n">
-        <v>550.7951790209598</v>
+        <v>550.7899769147027</v>
       </c>
       <c r="AR22" t="n">
-        <v>23.46902594955658</v>
+        <v>23.4689151201052</v>
       </c>
       <c r="AS22" t="n">
         <v>144</v>
@@ -4427,16 +4427,16 @@
         <v>176</v>
       </c>
       <c r="AU22" t="n">
-        <v>162.1386569560112</v>
+        <v>162.1384809862923</v>
       </c>
       <c r="AV22" t="n">
         <v>163</v>
       </c>
       <c r="AW22" t="n">
-        <v>659.065796352501</v>
+        <v>659.0632558516669</v>
       </c>
       <c r="AX22" t="n">
-        <v>25.67227680499922</v>
+        <v>25.67222732549061</v>
       </c>
       <c r="AY22" t="n">
         <v>145</v>
@@ -4445,16 +4445,16 @@
         <v>180</v>
       </c>
       <c r="BA22" t="n">
-        <v>127.9528113855999</v>
+        <v>127.9522260169434</v>
       </c>
       <c r="BB22" t="n">
         <v>125</v>
       </c>
       <c r="BC22" t="n">
-        <v>1599.337125450632</v>
+        <v>1599.326939034406</v>
       </c>
       <c r="BD22" t="n">
-        <v>39.99171320974675</v>
+        <v>39.99158585295669</v>
       </c>
       <c r="BE22" t="n">
         <v>104</v>
@@ -4463,7 +4463,1431 @@
         <v>157</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>white1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>437.4712617829501</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.40837426333759</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.884001026965782</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.807846332505713</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30</v>
+      </c>
+      <c r="K23" t="n">
+        <v>33.34181741564579</v>
+      </c>
+      <c r="L23" t="n">
+        <v>28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>449.4929538145141</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21.20124887393462</v>
+      </c>
+      <c r="O23" t="n">
+        <v>23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>177.2767934950412</v>
+      </c>
+      <c r="R23" t="n">
+        <v>238</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8660.399184867849</v>
+      </c>
+      <c r="T23" t="n">
+        <v>93.0612657600779</v>
+      </c>
+      <c r="U23" t="n">
+        <v>90</v>
+      </c>
+      <c r="V23" t="n">
+        <v>247</v>
+      </c>
+      <c r="W23" t="n">
+        <v>173.534029098132</v>
+      </c>
+      <c r="X23" t="n">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8324.099837980706</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>91.2365049636422</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>122.1247101658951</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>123</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>34.635050432007</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>5.885155089885652</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>130.3398069782021</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>6.193903926862957</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.488755497605772</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>163.8171583384639</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>218</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>7430.2840770784</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>86.19909556995596</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>83</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>229</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>174.1857003701606</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>232</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>8364.584327285955</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>91.45810148524818</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>89</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>243</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>174.0941638728146</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>225</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>8247.352604580004</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>90.81493602144972</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>99</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>white2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>435.8330615992954</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.42442488728947</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.081289958757711</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.661069326184065</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33.56868835230557</v>
+      </c>
+      <c r="L24" t="n">
+        <v>30</v>
+      </c>
+      <c r="M24" t="n">
+        <v>400.849822161999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>20.02123428168201</v>
+      </c>
+      <c r="O24" t="n">
+        <v>24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>181.0998166403602</v>
+      </c>
+      <c r="R24" t="n">
+        <v>239</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8170.050565956416</v>
+      </c>
+      <c r="T24" t="n">
+        <v>90.38833202331161</v>
+      </c>
+      <c r="U24" t="n">
+        <v>106</v>
+      </c>
+      <c r="V24" t="n">
+        <v>247</v>
+      </c>
+      <c r="W24" t="n">
+        <v>177.1807729524768</v>
+      </c>
+      <c r="X24" t="n">
+        <v>233</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7857.13487317933</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>88.64048100715232</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>121.8250823447145</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>34.68704306444805</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>5.889570702899156</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>130.443890697338</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>6.174920081417121</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2.484938647415087</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>167.2325401840553</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>7014.204010634448</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>83.75084483534748</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>97</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>229</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>177.8408537419384</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>234</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>7897.339835282886</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>88.86697831749927</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>103</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>243</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>176.8895098911973</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>228</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7833.520878010901</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>88.50717981051538</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>white3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>322.0131556754933</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27.6838629273958</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.087516941897226</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.255552469329239</v>
+      </c>
+      <c r="I25" t="n">
+        <v>26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29</v>
+      </c>
+      <c r="K25" t="n">
+        <v>34.4464997694929</v>
+      </c>
+      <c r="L25" t="n">
+        <v>33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>129.0859631978871</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11.36160038013515</v>
+      </c>
+      <c r="O25" t="n">
+        <v>28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>232.4024688668019</v>
+      </c>
+      <c r="R25" t="n">
+        <v>247</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2590.451851691116</v>
+      </c>
+      <c r="T25" t="n">
+        <v>50.89648172213003</v>
+      </c>
+      <c r="U25" t="n">
+        <v>242</v>
+      </c>
+      <c r="V25" t="n">
+        <v>251</v>
+      </c>
+      <c r="W25" t="n">
+        <v>226.9346647466232</v>
+      </c>
+      <c r="X25" t="n">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2473.240882077436</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>49.73168891237695</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>235</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>245</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>121.269744767554</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>127</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>55.11794438171209</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.424146037202669</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>115</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>130.4501903694059</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>8.193191502629084</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.86237515057497</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>133</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>213.9688086046256</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>227</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2199.915785016801</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>46.90325985490561</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>222</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>231</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>227.9122847940196</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>242</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>2493.453600393299</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>49.93449309238353</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>236</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>246</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>222.1918293674484</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>236</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2440.979344751809</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>49.40626827389222</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>226</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>white4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>335.8583234946871</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>28.20076324450299</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.352270193450019</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.313497394303702</v>
+      </c>
+      <c r="I26" t="n">
+        <v>27</v>
+      </c>
+      <c r="J26" t="n">
+        <v>30</v>
+      </c>
+      <c r="K26" t="n">
+        <v>31.85782432476758</v>
+      </c>
+      <c r="L26" t="n">
+        <v>31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>128.1848362240308</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11.32187423636347</v>
+      </c>
+      <c r="O26" t="n">
+        <v>25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>231.8452051743202</v>
+      </c>
+      <c r="R26" t="n">
+        <v>248</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2861.915620754205</v>
+      </c>
+      <c r="T26" t="n">
+        <v>53.4968748690445</v>
+      </c>
+      <c r="U26" t="n">
+        <v>243</v>
+      </c>
+      <c r="V26" t="n">
+        <v>252</v>
+      </c>
+      <c r="W26" t="n">
+        <v>227.0511428133971</v>
+      </c>
+      <c r="X26" t="n">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2747.004293118354</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>52.41187168112157</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>237</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>247</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>121.4930982349537</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>124</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>49.76545728462064</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.05446364258975</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>116</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>130.2279720052083</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>129</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>6.89519757753419</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.625870822705144</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>214.0933670711364</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2442.424711360541</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>49.42089346987306</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>223</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>233</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>227.9789547996118</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>244</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2769.207418488827</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>52.62325929176971</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>238</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>248</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>223.9502776984658</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>240</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2728.705852663893</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>52.23701611562334</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>229</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>white5</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>179.4330690954068</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28.27521788022992</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.516550164925637</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.55275344773553</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>30</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.35325145066497</v>
+      </c>
+      <c r="L27" t="n">
+        <v>27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>208.154224715322</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.42755089110144</v>
+      </c>
+      <c r="O27" t="n">
+        <v>22</v>
+      </c>
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>210.262483905548</v>
+      </c>
+      <c r="R27" t="n">
+        <v>244</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5450.79946608392</v>
+      </c>
+      <c r="T27" t="n">
+        <v>73.82952977016663</v>
+      </c>
+      <c r="U27" t="n">
+        <v>223</v>
+      </c>
+      <c r="V27" t="n">
+        <v>250</v>
+      </c>
+      <c r="W27" t="n">
+        <v>206.2856904133465</v>
+      </c>
+      <c r="X27" t="n">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5237.607040550684</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>72.37131365776557</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>245</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>125.2252531828704</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>26.40092453562838</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>5.1381829994297</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>128.9902275028935</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>4.024552815237032</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.006128813221383</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>194.6829988277474</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>225</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>4665.201888768222</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>68.30228318854518</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>205</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>232</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>207.0278945965526</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>239</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5273.360844772347</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>72.61790994494642</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>218</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>246</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>206.4620313353866</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>237</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>5176.593518986193</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>71.9485477197851</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>212</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>white6</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>300.0210640730121</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.4510426167108</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.168590933311219</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.858074689946227</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>30</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.26109499620738</v>
+      </c>
+      <c r="L28" t="n">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>347.897414138529</v>
+      </c>
+      <c r="N28" t="n">
+        <v>18.65200831381245</v>
+      </c>
+      <c r="O28" t="n">
+        <v>22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>124.5230828156098</v>
+      </c>
+      <c r="R28" t="n">
+        <v>110</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8662.753286086901</v>
+      </c>
+      <c r="T28" t="n">
+        <v>93.07391302662042</v>
+      </c>
+      <c r="U28" t="n">
+        <v>35</v>
+      </c>
+      <c r="V28" t="n">
+        <v>241</v>
+      </c>
+      <c r="W28" t="n">
+        <v>122.2862928734975</v>
+      </c>
+      <c r="X28" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8341.419080275744</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>91.33136963976696</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>236</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>125.3480678530092</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17.4571763159978</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>4.178178588332218</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>124</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>128.9615040268133</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2.814938657077724</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.67777789265377</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>129</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>115.398702113806</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>102</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>7440.079958269063</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>86.25589810713852</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>222</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>122.7133427309191</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>108</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>8393.41177911164</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>91.61556515741002</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>236</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>123.4480842936014</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>108</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>8376.826841663713</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>91.52500664661932</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>36</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>white7</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>219.0020426903544</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27.11022423668135</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.630588261992402</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.1518801690597</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.44879575891919</v>
+      </c>
+      <c r="L29" t="n">
+        <v>36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>159.7976404259225</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12.64110914540028</v>
+      </c>
+      <c r="O29" t="n">
+        <v>29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>228.361824999016</v>
+      </c>
+      <c r="R29" t="n">
+        <v>244</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2883.035992968863</v>
+      </c>
+      <c r="T29" t="n">
+        <v>53.69391020375461</v>
+      </c>
+      <c r="U29" t="n">
+        <v>237</v>
+      </c>
+      <c r="V29" t="n">
+        <v>249</v>
+      </c>
+      <c r="W29" t="n">
+        <v>222.2707289506706</v>
+      </c>
+      <c r="X29" t="n">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2739.821508648304</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>52.34330433444477</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>229</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>123.2597106481481</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>49.05647712499447</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.004032918611568</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>116</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>129.8825911458334</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>8.425359643987978</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.902647006438774</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>209.5971634157578</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>223</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2440.756926996994</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>49.40401731637817</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>216</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>230</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>223.2285445420541</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>238</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2757.492353262908</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>52.5118306028547</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>230</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>244</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>216.6368082274536</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>230</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2638.903635646988</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51.37026022561096</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>217</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>white8</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>122.8318060006372</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27.11500798740834</v>
+      </c>
+      <c r="F30" t="n">
+        <v>27</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.121922535565886</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.6686930388424</v>
+      </c>
+      <c r="I30" t="n">
+        <v>26</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" t="n">
+        <v>36.38439170432503</v>
+      </c>
+      <c r="L30" t="n">
+        <v>30</v>
+      </c>
+      <c r="M30" t="n">
+        <v>704.6511434804053</v>
+      </c>
+      <c r="N30" t="n">
+        <v>26.5452659335032</v>
+      </c>
+      <c r="O30" t="n">
+        <v>26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>175.7915066203961</v>
+      </c>
+      <c r="R30" t="n">
+        <v>241</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10595.24639956648</v>
+      </c>
+      <c r="T30" t="n">
+        <v>102.9332132966152</v>
+      </c>
+      <c r="U30" t="n">
+        <v>48</v>
+      </c>
+      <c r="V30" t="n">
+        <v>245</v>
+      </c>
+      <c r="W30" t="n">
+        <v>171.9132037151068</v>
+      </c>
+      <c r="X30" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10113.49891609054</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>100.5658934037308</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>126.3195835744599</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17.27286175753103</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>4.156063252349635</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>128.6937418016975</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>3.163377260494077</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.778588558518827</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>162.3377088137991</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>222</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>9023.488391666857</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>94.9920438335067</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>227</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>172.9667683273834</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>236</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>10132.74327545417</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>100.6615282789516</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>241</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>175.0834993692305</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>232</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>9571.469108673942</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>97.83388527843481</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>87</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>